--- a/resultsPSCC/KL/results_A_IEEE_118_syst_KL_35_100_0.9_1.0.xlsx
+++ b/resultsPSCC/KL/results_A_IEEE_118_syst_KL_35_100_0.9_1.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="results0.7" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,7 +13,7 @@
     <sheet name="results0.9" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'results0.7'!$A$1:$I$201</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'results0.7'!$A$1:$I$301</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="10">
   <si>
     <t xml:space="preserve">Instance</t>
   </si>
@@ -54,7 +54,7 @@
     <t xml:space="preserve">force</t>
   </si>
   <si>
-    <t xml:space="preserve">IEEE254</t>
+    <t xml:space="preserve">IEEE54</t>
   </si>
 </sst>
 </file>
@@ -177,10 +177,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:I301"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -228,16 +228,16 @@
         <v>0.7</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>79.0970158576965</v>
+        <v>69.0645070075989</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>1613083.84165423</v>
+        <v>1596301.73392896</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1575857.84725882</v>
+        <v>1581228.81120996</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>1574309.04199423</v>
+        <v>1580702.14783449</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>1</v>
@@ -257,16 +257,16 @@
         <v>0.7</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>53.6142370700836</v>
+        <v>34.2349698543549</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1603208.05301063</v>
+        <v>1617624.77142303</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>1576674.51215966</v>
+        <v>1577582.03100745</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>1575501.87162047</v>
+        <v>1576044.1524459</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>1</v>
@@ -286,16 +286,16 @@
         <v>0.7</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>41.2126491069794</v>
+        <v>59.25434923172</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>1618120.47647848</v>
+        <v>1599808.67238946</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>1575205.23365688</v>
+        <v>1580705.9986983</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>1573637.05386</v>
+        <v>1580254.87380317</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>1</v>
@@ -315,16 +315,16 @@
         <v>0.7</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>57.2947690486908</v>
+        <v>42.213634967804</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1608022.8198967</v>
+        <v>1601293.79470154</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>1576728.01959245</v>
+        <v>1580621.61280185</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>1575598.77053095</v>
+        <v>1579070.23183403</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>1</v>
@@ -344,16 +344,16 @@
         <v>0.7</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>56.2379729747772</v>
+        <v>49.167503118515</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>1597399.35579701</v>
+        <v>1608988.70299485</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>1579598.0632471</v>
+        <v>1581832.1830824</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>1578081.65105341</v>
+        <v>1580413.38584261</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>1</v>
@@ -373,16 +373,16 @@
         <v>0.7</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>135.729423046112</v>
+        <v>40.1851890087128</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>1602660.55464896</v>
+        <v>1596718.01760176</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>1578916.63171791</v>
+        <v>1579749.80736378</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>1577410.39917265</v>
+        <v>1578287.4886246</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>1</v>
@@ -402,16 +402,16 @@
         <v>0.7</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>51.9692530632019</v>
+        <v>35.5683460235596</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>1604564.32027746</v>
+        <v>1609748.05210655</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>1576580.13485999</v>
+        <v>1577817.55497158</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>1575090.31243259</v>
+        <v>1576246.02699784</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>1</v>
@@ -431,16 +431,16 @@
         <v>0.7</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>71.7972378730774</v>
+        <v>43.7395029067993</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>1606825.76740447</v>
+        <v>1602013.86928292</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>1579250.10469642</v>
+        <v>1578136.92747153</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>1578206.07749525</v>
+        <v>1577004.60862304</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>1</v>
@@ -460,16 +460,16 @@
         <v>0.7</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>70.6305909156799</v>
+        <v>57.0639870166779</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>1609349.14276185</v>
+        <v>1625160.69253751</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>1577283.08824571</v>
+        <v>1580551.0027008</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>1576346.42038073</v>
+        <v>1578974.21576826</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>1</v>
@@ -489,16 +489,16 @@
         <v>0.7</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>59.3166401386261</v>
+        <v>54.2545721530914</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>1593863.30351506</v>
+        <v>1605217.77417561</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>1578970.89608486</v>
+        <v>1581588.08875016</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>1577997.657114</v>
+        <v>1580043.53464558</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>1</v>
@@ -518,16 +518,16 @@
         <v>0.7</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>82.8726809024811</v>
+        <v>69.1014220714569</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>1588595.20971597</v>
+        <v>1589176.9837796</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>1578074.21239601</v>
+        <v>1584491.27722043</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>1576852.18453443</v>
+        <v>1583737.5683232</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>1</v>
@@ -547,16 +547,16 @@
         <v>0.7</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>243.270941972733</v>
+        <v>96.663635969162</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>1589630.94983931</v>
+        <v>1592641.33959093</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>1577714.00052143</v>
+        <v>1580586.50407921</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>1576545.38060393</v>
+        <v>1579105.7689478</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>1</v>
@@ -576,16 +576,16 @@
         <v>0.7</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>128.933175802231</v>
+        <v>64.0941178798676</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>1591815.94545875</v>
+        <v>1590501.55461309</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>1579478.62051672</v>
+        <v>1582239.52360278</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>1578103.80475879</v>
+        <v>1581527.14749772</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>1</v>
@@ -605,16 +605,16 @@
         <v>0.7</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>108.522747993469</v>
+        <v>279.365260839462</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>1591926.09057371</v>
+        <v>1586850.0117981</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>1577907.7638292</v>
+        <v>1581720.59173098</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>1576390.99609358</v>
+        <v>1580563.57194411</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>1</v>
@@ -634,16 +634,16 @@
         <v>0.7</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>86.6693170070648</v>
+        <v>61.5335850715637</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>1587920.88870851</v>
+        <v>1590500.40621734</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>1580322.98505923</v>
+        <v>1585756.90201768</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>1578973.32171744</v>
+        <v>1584537.72269215</v>
       </c>
       <c r="I16" s="1" t="n">
         <v>1</v>
@@ -663,16 +663,16 @@
         <v>0.7</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>109.0157289505</v>
+        <v>95.9633159637451</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>1593656.45566064</v>
+        <v>1588673.63972974</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>1578284.63263635</v>
+        <v>1581566.12910725</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>1577060.00529701</v>
+        <v>1580108.1456556</v>
       </c>
       <c r="I17" s="1" t="n">
         <v>1</v>
@@ -692,16 +692,16 @@
         <v>0.7</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>711.021555900574</v>
+        <v>70.6466269493103</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>1591424.98908205</v>
+        <v>1594399.02502408</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>1578819.87149356</v>
+        <v>1583554.8875576</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>1577310.02993806</v>
+        <v>1582340.45734781</v>
       </c>
       <c r="I18" s="1" t="n">
         <v>1</v>
@@ -721,16 +721,16 @@
         <v>0.7</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>104.598057985306</v>
+        <v>81.9086558818817</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>1591887.65388303</v>
+        <v>1593164.25669933</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>1579131.43136257</v>
+        <v>1580489.31251091</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>1577902.90686745</v>
+        <v>1579239.08474837</v>
       </c>
       <c r="I19" s="1" t="n">
         <v>1</v>
@@ -750,16 +750,16 @@
         <v>0.7</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>111.082380056381</v>
+        <v>70.7449269294739</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>1596038.41056363</v>
+        <v>1589567.49752231</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>1578837.96220504</v>
+        <v>1582656.64747947</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>1577709.09498872</v>
+        <v>1581116.66128199</v>
       </c>
       <c r="I20" s="1" t="n">
         <v>1</v>
@@ -779,16 +779,16 @@
         <v>0.7</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>88.8418679237366</v>
+        <v>83.0569741725922</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>1586602.46299833</v>
+        <v>1594339.03209416</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>1578342.652463</v>
+        <v>1583153.48379172</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>1577272.34610923</v>
+        <v>1581867.58298971</v>
       </c>
       <c r="I21" s="1" t="n">
         <v>1</v>
@@ -808,16 +808,16 @@
         <v>0.7</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>140.462853193283</v>
+        <v>79.9840409755707</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>1586564.3896974</v>
+        <v>1587787.20440585</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>1579451.85979068</v>
+        <v>1584970.95790903</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>1577874.04502587</v>
+        <v>1583972.10976338</v>
       </c>
       <c r="I22" s="1" t="n">
         <v>1</v>
@@ -837,16 +837,16 @@
         <v>0.7</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>183.614073038101</v>
+        <v>71.7083380222321</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>1588770.85987676</v>
+        <v>1590896.40408718</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>1578902.94180756</v>
+        <v>1581933.57185681</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>1577762.56106674</v>
+        <v>1580895.22002087</v>
       </c>
       <c r="I23" s="1" t="n">
         <v>1</v>
@@ -866,16 +866,16 @@
         <v>0.7</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>134.662691116333</v>
+        <v>92.9758629798889</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>1587394.92349338</v>
+        <v>1587630.35498897</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>1579188.94801954</v>
+        <v>1582868.66732159</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>1577773.90280765</v>
+        <v>1582004.66942351</v>
       </c>
       <c r="I24" s="1" t="n">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>0.7</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>120.428791999817</v>
+        <v>106.149129152298</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>1586221.47747954</v>
+        <v>1585209.13314815</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>1579998.95383097</v>
+        <v>1586177.81533247</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>1579203.09349129</v>
+        <v>1584605.05367249</v>
       </c>
       <c r="I25" s="1" t="n">
         <v>1</v>
@@ -924,16 +924,16 @@
         <v>0.7</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>151.498151063919</v>
+        <v>95.3088109493256</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>1583995.32116221</v>
+        <v>1587506.60400763</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>1581203.13020519</v>
+        <v>1585428.13580896</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>1580052.09564831</v>
+        <v>1584454.54522253</v>
       </c>
       <c r="I26" s="1" t="n">
         <v>1</v>
@@ -953,16 +953,16 @@
         <v>0.7</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>161.079360961914</v>
+        <v>126.711046218872</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>1591099.86085459</v>
+        <v>1585414.77613722</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>1578591.80994477</v>
+        <v>1582947.98939929</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>1577210.51316316</v>
+        <v>1581636.28896599</v>
       </c>
       <c r="I27" s="1" t="n">
         <v>1</v>
@@ -982,16 +982,16 @@
         <v>0.7</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>97.9588849544525</v>
+        <v>88.6802370548248</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>1589758.44369335</v>
+        <v>1587534.65649151</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>1579615.05871201</v>
+        <v>1583718.66375484</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>1578515.2930978</v>
+        <v>1582198.3568164</v>
       </c>
       <c r="I28" s="1" t="n">
         <v>1</v>
@@ -1011,16 +1011,16 @@
         <v>0.7</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>209.339709997177</v>
+        <v>104.952465772629</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>1587428.17714312</v>
+        <v>1588865.58862787</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>1579742.06399745</v>
+        <v>1582780.18315574</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>1578590.88017146</v>
+        <v>1581745.73090881</v>
       </c>
       <c r="I29" s="1" t="n">
         <v>1</v>
@@ -1040,16 +1040,16 @@
         <v>0.7</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>564.342205047607</v>
+        <v>240.87199306488</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>1589047.20043532</v>
+        <v>1588006.32584143</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>1579031.85090185</v>
+        <v>1583061.16262631</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>1577480.51121208</v>
+        <v>1581599.84548182</v>
       </c>
       <c r="I30" s="1" t="n">
         <v>1</v>
@@ -1069,16 +1069,16 @@
         <v>0.7</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>173.133098125458</v>
+        <v>110.164487838745</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>1586397.29552682</v>
+        <v>1591373.5611859</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>1578351.04103366</v>
+        <v>1582765.29698806</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>1576859.27994116</v>
+        <v>1581669.83347489</v>
       </c>
       <c r="I31" s="1" t="n">
         <v>1</v>
@@ -1098,16 +1098,16 @@
         <v>0.7</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>157.441771030426</v>
+        <v>114.284744024277</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>1583989.8819652</v>
+        <v>1586114.6365774</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>1580026.29110663</v>
+        <v>1585246.12250982</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>1578764.40883792</v>
+        <v>1584487.50790025</v>
       </c>
       <c r="I32" s="1" t="n">
         <v>1</v>
@@ -1127,16 +1127,16 @@
         <v>0.7</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>164.839692115784</v>
+        <v>418.106183052063</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>1588418.69332777</v>
+        <v>1587367.51780446</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>1579385.47011141</v>
+        <v>1583672.75720968</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>1578471.14562058</v>
+        <v>1582099.35917994</v>
       </c>
       <c r="I33" s="1" t="n">
         <v>1</v>
@@ -1156,16 +1156,16 @@
         <v>0.7</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>188.831498861313</v>
+        <v>105.11983704567</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>1585282.54440437</v>
+        <v>1586687.12511035</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>1580161.24556841</v>
+        <v>1583509.69370775</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>1578847.38673044</v>
+        <v>1581929.41876908</v>
       </c>
       <c r="I34" s="1" t="n">
         <v>1</v>
@@ -1185,16 +1185,16 @@
         <v>0.7</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>188.313498973846</v>
+        <v>694.696372032166</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>1586163.76484079</v>
+        <v>1584228.93639376</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>1580346.66475965</v>
+        <v>1585644.46260649</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>1579053.66456691</v>
+        <v>1584082.68892654</v>
       </c>
       <c r="I35" s="1" t="n">
         <v>1</v>
@@ -1214,16 +1214,16 @@
         <v>0.7</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>198.768185853958</v>
+        <v>78.2453739643097</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>1583982.42753736</v>
+        <v>1583422.94736611</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>1581221.51969342</v>
+        <v>1586941.75769871</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>1580171.77151364</v>
+        <v>1586039.29284991</v>
       </c>
       <c r="I36" s="1" t="n">
         <v>1</v>
@@ -1243,16 +1243,16 @@
         <v>0.7</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>188.171706914902</v>
+        <v>205.145719051361</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>1586718.8492197</v>
+        <v>1585488.1906293</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>1579321.75910855</v>
+        <v>1582969.93758887</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>1577794.45257422</v>
+        <v>1581433.11738745</v>
       </c>
       <c r="I37" s="1" t="n">
         <v>1</v>
@@ -1272,16 +1272,16 @@
         <v>0.7</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>173.5884141922</v>
+        <v>188.004855155945</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>1585379.61641545</v>
+        <v>1587692.81017553</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>1580047.25643225</v>
+        <v>1584330.0498013</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>1578627.45777512</v>
+        <v>1582850.35591168</v>
       </c>
       <c r="I38" s="1" t="n">
         <v>1</v>
@@ -1301,16 +1301,16 @@
         <v>0.7</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>172.1068379879</v>
+        <v>87.2734220027924</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>1586664.90833815</v>
+        <v>1589168.91618757</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>1579611.81419912</v>
+        <v>1583399.89951112</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>1578067.44055039</v>
+        <v>1582221.38371451</v>
       </c>
       <c r="I39" s="1" t="n">
         <v>1</v>
@@ -1330,16 +1330,16 @@
         <v>0.7</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>170.340997219086</v>
+        <v>143.429333925247</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>1588222.72491058</v>
+        <v>1586372.50843227</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>1578179.01254549</v>
+        <v>1582669.98299845</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>1577248.79304641</v>
+        <v>1581438.49131448</v>
       </c>
       <c r="I40" s="1" t="n">
         <v>1</v>
@@ -1359,16 +1359,16 @@
         <v>0.7</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>147.86284995079</v>
+        <v>158.653810024261</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>1584035.66050371</v>
+        <v>1587128.09342724</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>1578226.74827728</v>
+        <v>1584269.01955258</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>1577287.90948597</v>
+        <v>1582704.5682798</v>
       </c>
       <c r="I41" s="1" t="n">
         <v>1</v>
@@ -1388,16 +1388,16 @@
         <v>0.7</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>156.33509683609</v>
+        <v>208.914082050323</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>1583430.03173087</v>
+        <v>1585387.73004358</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>1580396.42088821</v>
+        <v>1587224.47519498</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>1579348.82005097</v>
+        <v>1585813.75058452</v>
       </c>
       <c r="I42" s="1" t="n">
         <v>1</v>
@@ -1417,16 +1417,16 @@
         <v>0.7</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>222.270581007004</v>
+        <v>174.484570980072</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>1586683.22063213</v>
+        <v>1585978.6907054</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>1580706.41594222</v>
+        <v>1583758.06933133</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>1579143.03985701</v>
+        <v>1582870.49896585</v>
       </c>
       <c r="I43" s="1" t="n">
         <v>1</v>
@@ -1446,16 +1446,16 @@
         <v>0.7</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>298.803729057312</v>
+        <v>127.891294002533</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>1583680.90554571</v>
+        <v>1583864.79890465</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>1580153.42292436</v>
+        <v>1585531.65562382</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>1579033.26203353</v>
+        <v>1583969.45687221</v>
       </c>
       <c r="I44" s="1" t="n">
         <v>1</v>
@@ -1475,16 +1475,16 @@
         <v>0.7</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>234.334216117859</v>
+        <v>129.519805192947</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>1584790.34479365</v>
+        <v>1583948.03490851</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>1580665.4545888</v>
+        <v>1586379.0373213</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>1579693.03820191</v>
+        <v>1585176.22539355</v>
       </c>
       <c r="I45" s="1" t="n">
         <v>1</v>
@@ -1504,16 +1504,16 @@
         <v>0.7</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>141.082340955734</v>
+        <v>434.677114009857</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>1584169.44455562</v>
+        <v>1584265.0077193</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>1581661.92489123</v>
+        <v>1587451.05115516</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>1580218.11680053</v>
+        <v>1586008.9932282</v>
       </c>
       <c r="I46" s="1" t="n">
         <v>1</v>
@@ -1533,16 +1533,16 @@
         <v>0.7</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>226.46205997467</v>
+        <v>148.608268976212</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>1584649.51242434</v>
+        <v>1584280.41597096</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>1580188.31027311</v>
+        <v>1582942.32945523</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>1579107.97582762</v>
+        <v>1581843.77505748</v>
       </c>
       <c r="I47" s="1" t="n">
         <v>1</v>
@@ -1562,16 +1562,16 @@
         <v>0.7</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>221.596585988998</v>
+        <v>390.493134975433</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>1585307.38269109</v>
+        <v>1587068.02013457</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>1580570.80952155</v>
+        <v>1584010.79022396</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>1579453.09517764</v>
+        <v>1582463.08771953</v>
       </c>
       <c r="I48" s="1" t="n">
         <v>1</v>
@@ -1591,16 +1591,16 @@
         <v>0.7</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>168.892154932022</v>
+        <v>144.810807943344</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>1586033.39250001</v>
+        <v>1585693.83718855</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>1578830.71048264</v>
+        <v>1583732.34473297</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>1578090.83568017</v>
+        <v>1582451.13052562</v>
       </c>
       <c r="I49" s="1" t="n">
         <v>1</v>
@@ -1620,16 +1620,16 @@
         <v>0.7</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>187.776926040649</v>
+        <v>152.61119389534</v>
       </c>
       <c r="F50" s="1" t="n">
-        <v>1585715.73784582</v>
+        <v>1584692.53820921</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>1578896.24489747</v>
+        <v>1586431.49114138</v>
       </c>
       <c r="H50" s="1" t="n">
-        <v>1578171.56897722</v>
+        <v>1585214.77375303</v>
       </c>
       <c r="I50" s="1" t="n">
         <v>1</v>
@@ -1649,16 +1649,16 @@
         <v>0.7</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>221.461272954941</v>
+        <v>138.155960083008</v>
       </c>
       <c r="F51" s="1" t="n">
-        <v>1584715.27398545</v>
+        <v>1584265.32774282</v>
       </c>
       <c r="G51" s="1" t="n">
-        <v>1579564.84592287</v>
+        <v>1585067.4993639</v>
       </c>
       <c r="H51" s="1" t="n">
-        <v>1578103.91263799</v>
+        <v>1584189.8699699</v>
       </c>
       <c r="I51" s="1" t="n">
         <v>1</v>
@@ -1678,16 +1678,16 @@
         <v>0.7</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>188.614882946014</v>
+        <v>332.749728918076</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>1583646.5580266</v>
+        <v>1584433.13719833</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>1580347.5413774</v>
+        <v>1586769.55123912</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>1579334.13820904</v>
+        <v>1585351.18650831</v>
       </c>
       <c r="I52" s="1" t="n">
         <v>1</v>
@@ -1707,16 +1707,16 @@
         <v>0.7</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>202.694928884506</v>
+        <v>426.077252864838</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>1584091.60590822</v>
+        <v>1584728.52192604</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>1580959.87199747</v>
+        <v>1585257.4743365</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>1579505.01678294</v>
+        <v>1583722.32015489</v>
       </c>
       <c r="I53" s="1" t="n">
         <v>1</v>
@@ -1736,16 +1736,16 @@
         <v>0.7</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>186.638778924942</v>
+        <v>250.302476882935</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>1583262.57309903</v>
+        <v>1583946.31052333</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>1581833.76411808</v>
+        <v>1585256.96690051</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>1580303.3731761</v>
+        <v>1583883.66216476</v>
       </c>
       <c r="I54" s="1" t="n">
         <v>1</v>
@@ -1765,16 +1765,16 @@
         <v>0.7</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>142.951100826263</v>
+        <v>89.0857789516449</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>1584454.79066793</v>
+        <v>1583108.58965484</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>1580840.4647672</v>
+        <v>1585924.20877489</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>1579721.36601494</v>
+        <v>1584860.08156871</v>
       </c>
       <c r="I55" s="1" t="n">
         <v>1</v>
@@ -1794,16 +1794,16 @@
         <v>0.7</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>225.915194988251</v>
+        <v>132.616479158402</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>1583188.07744741</v>
+        <v>1582497.36060139</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>1581543.62925109</v>
+        <v>1587067.26470213</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>1580485.08926953</v>
+        <v>1585670.84996168</v>
       </c>
       <c r="I56" s="1" t="n">
         <v>1</v>
@@ -1823,16 +1823,16 @@
         <v>0.7</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>282.417645931244</v>
+        <v>200.097535133362</v>
       </c>
       <c r="F57" s="1" t="n">
-        <v>1584281.43080289</v>
+        <v>1582287.98191692</v>
       </c>
       <c r="G57" s="1" t="n">
-        <v>1580995.49659647</v>
+        <v>1583267.32404705</v>
       </c>
       <c r="H57" s="1" t="n">
-        <v>1579779.63132732</v>
+        <v>1582610.2559148</v>
       </c>
       <c r="I57" s="1" t="n">
         <v>1</v>
@@ -1852,16 +1852,16 @@
         <v>0.7</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>295.497786045074</v>
+        <v>1149.99265193939</v>
       </c>
       <c r="F58" s="1" t="n">
-        <v>1583967.90045442</v>
+        <v>1584783.34051261</v>
       </c>
       <c r="G58" s="1" t="n">
-        <v>1581146.37976995</v>
+        <v>1585265.02917114</v>
       </c>
       <c r="H58" s="1" t="n">
-        <v>1579919.74781862</v>
+        <v>1583681.57603933</v>
       </c>
       <c r="I58" s="1" t="n">
         <v>1</v>
@@ -1881,16 +1881,16 @@
         <v>0.7</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>392.11581492424</v>
+        <v>208.519701004028</v>
       </c>
       <c r="F59" s="1" t="n">
-        <v>1584836.03054007</v>
+        <v>1584136.09264812</v>
       </c>
       <c r="G59" s="1" t="n">
-        <v>1579310.60229351</v>
+        <v>1585073.49878319</v>
       </c>
       <c r="H59" s="1" t="n">
-        <v>1578226.54055211</v>
+        <v>1583608.02591231</v>
       </c>
       <c r="I59" s="1" t="n">
         <v>1</v>
@@ -1910,16 +1910,16 @@
         <v>0.7</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>398.949733972549</v>
+        <v>179.017347097397</v>
       </c>
       <c r="F60" s="1" t="n">
-        <v>1585309.31479895</v>
+        <v>1584766.06409089</v>
       </c>
       <c r="G60" s="1" t="n">
-        <v>1579368.2127415</v>
+        <v>1586617.00425768</v>
       </c>
       <c r="H60" s="1" t="n">
-        <v>1578143.78304031</v>
+        <v>1585042.86190689</v>
       </c>
       <c r="I60" s="1" t="n">
         <v>1</v>
@@ -1939,16 +1939,16 @@
         <v>0.7</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>283.775696992874</v>
+        <v>227.786245822906</v>
       </c>
       <c r="F61" s="1" t="n">
-        <v>1584507.46141546</v>
+        <v>1584389.38679931</v>
       </c>
       <c r="G61" s="1" t="n">
-        <v>1580099.22120102</v>
+        <v>1585316.54114735</v>
       </c>
       <c r="H61" s="1" t="n">
-        <v>1578785.74321221</v>
+        <v>1584016.65392504</v>
       </c>
       <c r="I61" s="1" t="n">
         <v>1</v>
@@ -1968,16 +1968,16 @@
         <v>0.7</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>239.540289878845</v>
+        <v>427.143885850906</v>
       </c>
       <c r="F62" s="1" t="n">
-        <v>1583050.82208963</v>
+        <v>1583785.56511699</v>
       </c>
       <c r="G62" s="1" t="n">
-        <v>1580824.61888699</v>
+        <v>1586854.80316405</v>
       </c>
       <c r="H62" s="1" t="n">
-        <v>1579351.26527246</v>
+        <v>1585385.92688856</v>
       </c>
       <c r="I62" s="1" t="n">
         <v>1</v>
@@ -1997,16 +1997,16 @@
         <v>0.7</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>123.947772979736</v>
+        <v>287.897021055222</v>
       </c>
       <c r="F63" s="1" t="n">
-        <v>1584334.07489745</v>
+        <v>1582460.63090073</v>
       </c>
       <c r="G63" s="1" t="n">
-        <v>1580217.15798967</v>
+        <v>1585109.09803047</v>
       </c>
       <c r="H63" s="1" t="n">
-        <v>1579146.94757863</v>
+        <v>1583603.48758317</v>
       </c>
       <c r="I63" s="1" t="n">
         <v>1</v>
@@ -2026,16 +2026,16 @@
         <v>0.7</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>209.821001052856</v>
+        <v>189.583517074585</v>
       </c>
       <c r="F64" s="1" t="n">
-        <v>1583137.84743182</v>
+        <v>1584040.63321248</v>
       </c>
       <c r="G64" s="1" t="n">
-        <v>1581827.95722934</v>
+        <v>1585252.37817401</v>
       </c>
       <c r="H64" s="1" t="n">
-        <v>1580492.00946107</v>
+        <v>1583960.73649994</v>
       </c>
       <c r="I64" s="1" t="n">
         <v>1</v>
@@ -2055,16 +2055,16 @@
         <v>0.7</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>312.794523000717</v>
+        <v>197.675631999969</v>
       </c>
       <c r="F65" s="1" t="n">
-        <v>1583132.24008392</v>
+        <v>1582492.72988062</v>
       </c>
       <c r="G65" s="1" t="n">
-        <v>1580990.49746166</v>
+        <v>1586101.73140035</v>
       </c>
       <c r="H65" s="1" t="n">
-        <v>1579880.55253427</v>
+        <v>1584962.47470305</v>
       </c>
       <c r="I65" s="1" t="n">
         <v>1</v>
@@ -2084,16 +2084,16 @@
         <v>0.7</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>247.393578052521</v>
+        <v>326.557979106903</v>
       </c>
       <c r="F66" s="1" t="n">
-        <v>1583471.58098053</v>
+        <v>1582862.45364897</v>
       </c>
       <c r="G66" s="1" t="n">
-        <v>1582385.65552302</v>
+        <v>1586678.08499267</v>
       </c>
       <c r="H66" s="1" t="n">
-        <v>1581615.7712907</v>
+        <v>1585172.52309947</v>
       </c>
       <c r="I66" s="1" t="n">
         <v>1</v>
@@ -2113,16 +2113,16 @@
         <v>0.7</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>256.748451948166</v>
+        <v>131.155903100967</v>
       </c>
       <c r="F67" s="1" t="n">
-        <v>1583954.5059234</v>
+        <v>1583289.6903119</v>
       </c>
       <c r="G67" s="1" t="n">
-        <v>1581372.47224049</v>
+        <v>1584029.90441109</v>
       </c>
       <c r="H67" s="1" t="n">
-        <v>1579932.82490355</v>
+        <v>1582495.64419936</v>
       </c>
       <c r="I67" s="1" t="n">
         <v>1</v>
@@ -2142,16 +2142,16 @@
         <v>0.7</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>279.842781066895</v>
+        <v>239.536844015121</v>
       </c>
       <c r="F68" s="1" t="n">
-        <v>1583887.77345882</v>
+        <v>1583375.82350585</v>
       </c>
       <c r="G68" s="1" t="n">
-        <v>1581202.04158192</v>
+        <v>1586672.87669401</v>
       </c>
       <c r="H68" s="1" t="n">
-        <v>1579682.01099682</v>
+        <v>1585132.72334099</v>
       </c>
       <c r="I68" s="1" t="n">
         <v>1</v>
@@ -2171,16 +2171,16 @@
         <v>0.7</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>263.037769079208</v>
+        <v>273.18056178093</v>
       </c>
       <c r="F69" s="1" t="n">
-        <v>1584186.25672874</v>
+        <v>1582668.34512056</v>
       </c>
       <c r="G69" s="1" t="n">
-        <v>1579851.08560814</v>
+        <v>1584347.65612096</v>
       </c>
       <c r="H69" s="1" t="n">
-        <v>1578924.95355926</v>
+        <v>1583405.26809869</v>
       </c>
       <c r="I69" s="1" t="n">
         <v>1</v>
@@ -2200,16 +2200,16 @@
         <v>0.7</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>158.960608005524</v>
+        <v>226.008103132248</v>
       </c>
       <c r="F70" s="1" t="n">
-        <v>1585397.76337508</v>
+        <v>1583551.86937727</v>
       </c>
       <c r="G70" s="1" t="n">
-        <v>1580215.74750549</v>
+        <v>1586807.50337293</v>
       </c>
       <c r="H70" s="1" t="n">
-        <v>1578640.73412953</v>
+        <v>1585454.3261916</v>
       </c>
       <c r="I70" s="1" t="n">
         <v>1</v>
@@ -2229,16 +2229,16 @@
         <v>0.7</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>290.856330871582</v>
+        <v>144.80863404274</v>
       </c>
       <c r="F71" s="1" t="n">
-        <v>1582692.73435972</v>
+        <v>1582537.91498866</v>
       </c>
       <c r="G71" s="1" t="n">
-        <v>1579849.78372348</v>
+        <v>1585251.95378557</v>
       </c>
       <c r="H71" s="1" t="n">
-        <v>1579256.54831115</v>
+        <v>1584048.23267903</v>
       </c>
       <c r="I71" s="1" t="n">
         <v>1</v>
@@ -2258,16 +2258,16 @@
         <v>0.7</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>291.385065078735</v>
+        <v>283.08780002594</v>
       </c>
       <c r="F72" s="1" t="n">
-        <v>1582790.73921238</v>
+        <v>1583279.19082267</v>
       </c>
       <c r="G72" s="1" t="n">
-        <v>1580634.33612752</v>
+        <v>1586512.05590478</v>
       </c>
       <c r="H72" s="1" t="n">
-        <v>1579733.22535039</v>
+        <v>1585363.64042182</v>
       </c>
       <c r="I72" s="1" t="n">
         <v>1</v>
@@ -2287,16 +2287,16 @@
         <v>0.7</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>254.136945962906</v>
+        <v>103.162621974945</v>
       </c>
       <c r="F73" s="1" t="n">
-        <v>1583189.18927556</v>
+        <v>1582778.49835614</v>
       </c>
       <c r="G73" s="1" t="n">
-        <v>1580802.00877267</v>
+        <v>1585152.73427862</v>
       </c>
       <c r="H73" s="1" t="n">
-        <v>1579783.56472499</v>
+        <v>1583856.28036895</v>
       </c>
       <c r="I73" s="1" t="n">
         <v>1</v>
@@ -2316,16 +2316,16 @@
         <v>0.7</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>316.186947107315</v>
+        <v>474.158249139786</v>
       </c>
       <c r="F74" s="1" t="n">
-        <v>1582708.07386905</v>
+        <v>1583448.85331518</v>
       </c>
       <c r="G74" s="1" t="n">
-        <v>1581240.19522667</v>
+        <v>1586146.81308758</v>
       </c>
       <c r="H74" s="1" t="n">
-        <v>1580309.5025862</v>
+        <v>1584631.41280484</v>
       </c>
       <c r="I74" s="1" t="n">
         <v>1</v>
@@ -2345,16 +2345,16 @@
         <v>0.7</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>169.623581171036</v>
+        <v>274.871896028519</v>
       </c>
       <c r="F75" s="1" t="n">
-        <v>1583141.20665498</v>
+        <v>1583415.11775718</v>
       </c>
       <c r="G75" s="1" t="n">
-        <v>1581461.50646568</v>
+        <v>1588069.10330834</v>
       </c>
       <c r="H75" s="1" t="n">
-        <v>1579996.49269747</v>
+        <v>1586655.44690845</v>
       </c>
       <c r="I75" s="1" t="n">
         <v>1</v>
@@ -2374,16 +2374,16 @@
         <v>0.7</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>278.305397987366</v>
+        <v>123.803194046021</v>
       </c>
       <c r="F76" s="1" t="n">
-        <v>1583224.94656994</v>
+        <v>1582059.74463955</v>
       </c>
       <c r="G76" s="1" t="n">
-        <v>1583013.6283474</v>
+        <v>1586521.09790603</v>
       </c>
       <c r="H76" s="1" t="n">
-        <v>1582052.31628674</v>
+        <v>1585481.58506224</v>
       </c>
       <c r="I76" s="1" t="n">
         <v>1</v>
@@ -2403,16 +2403,16 @@
         <v>0.7</v>
       </c>
       <c r="E77" s="1" t="n">
-        <v>172.658216953278</v>
+        <v>557.2479159832</v>
       </c>
       <c r="F77" s="1" t="n">
-        <v>1583605.16658959</v>
+        <v>1582506.1674149</v>
       </c>
       <c r="G77" s="1" t="n">
-        <v>1580987.75359659</v>
+        <v>1583139.34540693</v>
       </c>
       <c r="H77" s="1" t="n">
-        <v>1579703.01929357</v>
+        <v>1581611.75197663</v>
       </c>
       <c r="I77" s="1" t="n">
         <v>1</v>
@@ -2432,16 +2432,16 @@
         <v>0.7</v>
       </c>
       <c r="E78" s="1" t="n">
-        <v>353.187394857407</v>
+        <v>239.503507852554</v>
       </c>
       <c r="F78" s="1" t="n">
-        <v>1583280.61382867</v>
+        <v>1582118.09070527</v>
       </c>
       <c r="G78" s="1" t="n">
-        <v>1581016.02709149</v>
+        <v>1586095.09984573</v>
       </c>
       <c r="H78" s="1" t="n">
-        <v>1579517.47035387</v>
+        <v>1585120.86201307</v>
       </c>
       <c r="I78" s="1" t="n">
         <v>1</v>
@@ -2461,16 +2461,16 @@
         <v>0.7</v>
       </c>
       <c r="E79" s="1" t="n">
-        <v>306.698843002319</v>
+        <v>334.283303976059</v>
       </c>
       <c r="F79" s="1" t="n">
-        <v>1583197.70394767</v>
+        <v>1584777.81981709</v>
       </c>
       <c r="G79" s="1" t="n">
-        <v>1579675.29097887</v>
+        <v>1584971.2085408</v>
       </c>
       <c r="H79" s="1" t="n">
-        <v>1578741.05349402</v>
+        <v>1583395.90040413</v>
       </c>
       <c r="I79" s="1" t="n">
         <v>1</v>
@@ -2490,16 +2490,16 @@
         <v>0.7</v>
       </c>
       <c r="E80" s="1" t="n">
-        <v>376.993661880493</v>
+        <v>136.5163230896</v>
       </c>
       <c r="F80" s="1" t="n">
-        <v>1584245.3010052</v>
+        <v>1582969.30018692</v>
       </c>
       <c r="G80" s="1" t="n">
-        <v>1579758.33473822</v>
+        <v>1588059.60932764</v>
       </c>
       <c r="H80" s="1" t="n">
-        <v>1578794.10594182</v>
+        <v>1586683.88154937</v>
       </c>
       <c r="I80" s="1" t="n">
         <v>1</v>
@@ -2519,16 +2519,16 @@
         <v>0.7</v>
       </c>
       <c r="E81" s="1" t="n">
-        <v>412.563596010208</v>
+        <v>214.207082986832</v>
       </c>
       <c r="F81" s="1" t="n">
-        <v>1582836.65984354</v>
+        <v>1582218.67392944</v>
       </c>
       <c r="G81" s="1" t="n">
-        <v>1580223.82500272</v>
+        <v>1586497.74703146</v>
       </c>
       <c r="H81" s="1" t="n">
-        <v>1579147.78887761</v>
+        <v>1585853.95783774</v>
       </c>
       <c r="I81" s="1" t="n">
         <v>1</v>
@@ -2548,16 +2548,16 @@
         <v>0.7</v>
       </c>
       <c r="E82" s="1" t="n">
-        <v>289.257592916489</v>
+        <v>224.972531080246</v>
       </c>
       <c r="F82" s="1" t="n">
-        <v>1582705.61177908</v>
+        <v>1582532.9148631</v>
       </c>
       <c r="G82" s="1" t="n">
-        <v>1580401.86143069</v>
+        <v>1586256.54527096</v>
       </c>
       <c r="H82" s="1" t="n">
-        <v>1579647.98497047</v>
+        <v>1585419.58531959</v>
       </c>
       <c r="I82" s="1" t="n">
         <v>1</v>
@@ -2577,16 +2577,16 @@
         <v>0.7</v>
       </c>
       <c r="E83" s="1" t="n">
-        <v>323.168885946274</v>
+        <v>332.708045005798</v>
       </c>
       <c r="F83" s="1" t="n">
-        <v>1583015.98625601</v>
+        <v>1582640.80928436</v>
       </c>
       <c r="G83" s="1" t="n">
-        <v>1580845.7491799</v>
+        <v>1586107.62817536</v>
       </c>
       <c r="H83" s="1" t="n">
-        <v>1579975.57752283</v>
+        <v>1584732.63383113</v>
       </c>
       <c r="I83" s="1" t="n">
         <v>1</v>
@@ -2606,16 +2606,16 @@
         <v>0.7</v>
       </c>
       <c r="E84" s="1" t="n">
-        <v>272.857886075974</v>
+        <v>212.343976020813</v>
       </c>
       <c r="F84" s="1" t="n">
-        <v>1582817.48541617</v>
+        <v>1581931.09193096</v>
       </c>
       <c r="G84" s="1" t="n">
-        <v>1581364.79369222</v>
+        <v>1586174.48717018</v>
       </c>
       <c r="H84" s="1" t="n">
-        <v>1580661.96602494</v>
+        <v>1584898.9471751</v>
       </c>
       <c r="I84" s="1" t="n">
         <v>1</v>
@@ -2635,16 +2635,16 @@
         <v>0.7</v>
       </c>
       <c r="E85" s="1" t="n">
-        <v>179.827785015106</v>
+        <v>361.370549917221</v>
       </c>
       <c r="F85" s="1" t="n">
-        <v>1583370.97709103</v>
+        <v>1582638.21327539</v>
       </c>
       <c r="G85" s="1" t="n">
-        <v>1581092.87453024</v>
+        <v>1588122.39323088</v>
       </c>
       <c r="H85" s="1" t="n">
-        <v>1580002.65112086</v>
+        <v>1586700.29418952</v>
       </c>
       <c r="I85" s="1" t="n">
         <v>1</v>
@@ -2664,16 +2664,16 @@
         <v>0.7</v>
       </c>
       <c r="E86" s="1" t="n">
-        <v>287.419857978821</v>
+        <v>401.920157194138</v>
       </c>
       <c r="F86" s="1" t="n">
-        <v>1582695.55325375</v>
+        <v>1582111.68575066</v>
       </c>
       <c r="G86" s="1" t="n">
-        <v>1583305.51690612</v>
+        <v>1587264.22455225</v>
       </c>
       <c r="H86" s="1" t="n">
-        <v>1582124.35243554</v>
+        <v>1585752.77716299</v>
       </c>
       <c r="I86" s="1" t="n">
         <v>1</v>
@@ -2693,16 +2693,16 @@
         <v>0.7</v>
       </c>
       <c r="E87" s="1" t="n">
-        <v>262.430752038956</v>
+        <v>285.105285167694</v>
       </c>
       <c r="F87" s="1" t="n">
-        <v>1583387.30733032</v>
+        <v>1583206.28695323</v>
       </c>
       <c r="G87" s="1" t="n">
-        <v>1581641.92091121</v>
+        <v>1583892.86076341</v>
       </c>
       <c r="H87" s="1" t="n">
-        <v>1580343.86415018</v>
+        <v>1582747.06675224</v>
       </c>
       <c r="I87" s="1" t="n">
         <v>1</v>
@@ -2722,16 +2722,16 @@
         <v>0.7</v>
       </c>
       <c r="E88" s="1" t="n">
-        <v>326.492584943771</v>
+        <v>262.87095618248</v>
       </c>
       <c r="F88" s="1" t="n">
-        <v>1583805.22634094</v>
+        <v>1582790.72113998</v>
       </c>
       <c r="G88" s="1" t="n">
-        <v>1580900.26230851</v>
+        <v>1586864.29769907</v>
       </c>
       <c r="H88" s="1" t="n">
-        <v>1579480.65203621</v>
+        <v>1585306.43133347</v>
       </c>
       <c r="I88" s="1" t="n">
         <v>1</v>
@@ -2751,16 +2751,16 @@
         <v>0.7</v>
       </c>
       <c r="E89" s="1" t="n">
-        <v>394.610085964203</v>
+        <v>409.991661071777</v>
       </c>
       <c r="F89" s="1" t="n">
-        <v>1583684.06578915</v>
+        <v>1582870.86163985</v>
       </c>
       <c r="G89" s="1" t="n">
-        <v>1580150.65861983</v>
+        <v>1585086.59569909</v>
       </c>
       <c r="H89" s="1" t="n">
-        <v>1579124.18879716</v>
+        <v>1583756.30352435</v>
       </c>
       <c r="I89" s="1" t="n">
         <v>1</v>
@@ -2780,16 +2780,16 @@
         <v>0.7</v>
       </c>
       <c r="E90" s="1" t="n">
-        <v>186.288913011551</v>
+        <v>130.817479848862</v>
       </c>
       <c r="F90" s="1" t="n">
-        <v>1583178.95920982</v>
+        <v>1583817.04241881</v>
       </c>
       <c r="G90" s="1" t="n">
-        <v>1580273.13287987</v>
+        <v>1588009.21463015</v>
       </c>
       <c r="H90" s="1" t="n">
-        <v>1578696.60910573</v>
+        <v>1586422.40955452</v>
       </c>
       <c r="I90" s="1" t="n">
         <v>1</v>
@@ -2809,16 +2809,16 @@
         <v>0.7</v>
       </c>
       <c r="E91" s="1" t="n">
-        <v>318.567949056625</v>
+        <v>220.380349159241</v>
       </c>
       <c r="F91" s="1" t="n">
-        <v>1583151.22593508</v>
+        <v>1582481.74838182</v>
       </c>
       <c r="G91" s="1" t="n">
-        <v>1580755.34749793</v>
+        <v>1587168.0378921</v>
       </c>
       <c r="H91" s="1" t="n">
-        <v>1579518.28827097</v>
+        <v>1585821.79615491</v>
       </c>
       <c r="I91" s="1" t="n">
         <v>1</v>
@@ -2838,16 +2838,16 @@
         <v>0.7</v>
       </c>
       <c r="E92" s="1" t="n">
-        <v>317.702237129211</v>
+        <v>232.139925956726</v>
       </c>
       <c r="F92" s="1" t="n">
-        <v>1583289.96299686</v>
+        <v>1582862.34683468</v>
       </c>
       <c r="G92" s="1" t="n">
-        <v>1581451.28606023</v>
+        <v>1586729.66562563</v>
       </c>
       <c r="H92" s="1" t="n">
-        <v>1580002.61748733</v>
+        <v>1585326.32907644</v>
       </c>
       <c r="I92" s="1" t="n">
         <v>1</v>
@@ -2867,16 +2867,16 @@
         <v>0.7</v>
       </c>
       <c r="E93" s="1" t="n">
-        <v>427.198297023773</v>
+        <v>213.061023950577</v>
       </c>
       <c r="F93" s="1" t="n">
-        <v>1583339.90521415</v>
+        <v>1582622.74152188</v>
       </c>
       <c r="G93" s="1" t="n">
-        <v>1581512.88623039</v>
+        <v>1586249.02254854</v>
       </c>
       <c r="H93" s="1" t="n">
-        <v>1580040.87407898</v>
+        <v>1584965.45101128</v>
       </c>
       <c r="I93" s="1" t="n">
         <v>1</v>
@@ -2896,16 +2896,16 @@
         <v>0.7</v>
       </c>
       <c r="E94" s="1" t="n">
-        <v>398.59514093399</v>
+        <v>295.353872060776</v>
       </c>
       <c r="F94" s="1" t="n">
-        <v>1582503.38327168</v>
+        <v>1582073.16043062</v>
       </c>
       <c r="G94" s="1" t="n">
-        <v>1581942.46674724</v>
+        <v>1586289.69774618</v>
       </c>
       <c r="H94" s="1" t="n">
-        <v>1580919.88647319</v>
+        <v>1584864.16877892</v>
       </c>
       <c r="I94" s="1" t="n">
         <v>1</v>
@@ -2925,16 +2925,16 @@
         <v>0.7</v>
       </c>
       <c r="E95" s="1" t="n">
-        <v>248.06226682663</v>
+        <v>345.446841955185</v>
       </c>
       <c r="F95" s="1" t="n">
-        <v>1582476.10652258</v>
+        <v>1582462.73494149</v>
       </c>
       <c r="G95" s="1" t="n">
-        <v>1581142.57127926</v>
+        <v>1588483.32326485</v>
       </c>
       <c r="H95" s="1" t="n">
-        <v>1580117.0414957</v>
+        <v>1587004.26550728</v>
       </c>
       <c r="I95" s="1" t="n">
         <v>1</v>
@@ -2954,16 +2954,16 @@
         <v>0.7</v>
       </c>
       <c r="E96" s="1" t="n">
-        <v>287.215222120285</v>
+        <v>451.561270952225</v>
       </c>
       <c r="F96" s="1" t="n">
-        <v>1583090.26270367</v>
+        <v>1582274.41383862</v>
       </c>
       <c r="G96" s="1" t="n">
-        <v>1583533.90334721</v>
+        <v>1586960.1017436</v>
       </c>
       <c r="H96" s="1" t="n">
-        <v>1582264.85154778</v>
+        <v>1585728.20367058</v>
       </c>
       <c r="I96" s="1" t="n">
         <v>1</v>
@@ -2983,16 +2983,16 @@
         <v>0.7</v>
       </c>
       <c r="E97" s="1" t="n">
-        <v>336.376836061478</v>
+        <v>217.069916963577</v>
       </c>
       <c r="F97" s="1" t="n">
-        <v>1583667.91423493</v>
+        <v>1581828.66399891</v>
       </c>
       <c r="G97" s="1" t="n">
-        <v>1581652.2715114</v>
+        <v>1584299.90749202</v>
       </c>
       <c r="H97" s="1" t="n">
-        <v>1580149.17344297</v>
+        <v>1582796.57026796</v>
       </c>
       <c r="I97" s="1" t="n">
         <v>1</v>
@@ -3012,16 +3012,16 @@
         <v>0.7</v>
       </c>
       <c r="E98" s="1" t="n">
-        <v>462.167884111404</v>
+        <v>197.900197982788</v>
       </c>
       <c r="F98" s="1" t="n">
-        <v>1583419.13197394</v>
+        <v>1582754.83156262</v>
       </c>
       <c r="G98" s="1" t="n">
-        <v>1580767.8356655</v>
+        <v>1586544.54552811</v>
       </c>
       <c r="H98" s="1" t="n">
-        <v>1579465.29370986</v>
+        <v>1585321.66983621</v>
       </c>
       <c r="I98" s="1" t="n">
         <v>1</v>
@@ -3041,16 +3041,16 @@
         <v>0.7</v>
       </c>
       <c r="E99" s="1" t="n">
-        <v>357.52287197113</v>
+        <v>622.42721581459</v>
       </c>
       <c r="F99" s="1" t="n">
-        <v>1583379.72713194</v>
+        <v>1583329.49192523</v>
       </c>
       <c r="G99" s="1" t="n">
-        <v>1580259.99123377</v>
+        <v>1585108.10760506</v>
       </c>
       <c r="H99" s="1" t="n">
-        <v>1579175.00481968</v>
+        <v>1583730.66220357</v>
       </c>
       <c r="I99" s="1" t="n">
         <v>1</v>
@@ -3070,16 +3070,16 @@
         <v>0.7</v>
       </c>
       <c r="E100" s="1" t="n">
-        <v>380.60219502449</v>
+        <v>286.9914290905</v>
       </c>
       <c r="F100" s="1" t="n">
-        <v>1583917.78947989</v>
+        <v>1582536.86050768</v>
       </c>
       <c r="G100" s="1" t="n">
-        <v>1580681.41796123</v>
+        <v>1587823.72450106</v>
       </c>
       <c r="H100" s="1" t="n">
-        <v>1579199.02784394</v>
+        <v>1586350.50788968</v>
       </c>
       <c r="I100" s="1" t="n">
         <v>1</v>
@@ -3099,16 +3099,16 @@
         <v>0.7</v>
       </c>
       <c r="E101" s="1" t="n">
-        <v>455.736707925797</v>
+        <v>168.200592041016</v>
       </c>
       <c r="F101" s="1" t="n">
-        <v>1582193.6711265</v>
+        <v>1582544.61052353</v>
       </c>
       <c r="G101" s="1" t="n">
-        <v>1580876.78225625</v>
+        <v>1587359.0773159</v>
       </c>
       <c r="H101" s="1" t="n">
-        <v>1579764.31762675</v>
+        <v>1585830.96162511</v>
       </c>
       <c r="I101" s="1" t="n">
         <v>1</v>
@@ -3214,108 +3214,108 @@
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:I201"/>
+  <autoFilter ref="A1:I301"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3332,10 +3332,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F109" activeCellId="0" sqref="F109"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B101" activeCellId="0" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3383,16 +3383,16 @@
         <v>0.8</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>82.0132241249084</v>
+        <v>50.306706905365</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>1612906.96559692</v>
+        <v>1601377.44409164</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1575719.88274407</v>
+        <v>1582432.7084793</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>1574586.41440157</v>
+        <v>1580867.48965068</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>1</v>
@@ -3412,16 +3412,16 @@
         <v>0.8</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>52.7765500545502</v>
+        <v>41.2169289588928</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1601909.967076</v>
+        <v>1620849.58373722</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>1576859.96093285</v>
+        <v>1577114.05289276</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>1575291.08407053</v>
+        <v>1576259.96965506</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>1</v>
@@ -3441,16 +3441,16 @@
         <v>0.8</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>73.7731549739838</v>
+        <v>59.6066179275513</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>1612216.13117913</v>
+        <v>1606466.81227769</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>1575530.79690213</v>
+        <v>1581404.62680402</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>1574075.03730177</v>
+        <v>1580543.39175611</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>1</v>
@@ -3470,16 +3470,16 @@
         <v>0.8</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>59.8541698455811</v>
+        <v>42.0482950210571</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1606419.72198635</v>
+        <v>1600957.95772091</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>1576601.97121884</v>
+        <v>1580622.97858152</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>1575748.1918647</v>
+        <v>1579064.91468475</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>1</v>
@@ -3499,16 +3499,16 @@
         <v>0.8</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>38.5109601020813</v>
+        <v>35.9388108253479</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>1593544.7059132</v>
+        <v>1602809.85632864</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>1579154.65561168</v>
+        <v>1581400.30743574</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>1578285.38420009</v>
+        <v>1580313.29031614</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>1</v>
@@ -3528,16 +3528,16 @@
         <v>0.8</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>61.7089500427246</v>
+        <v>45.1472752094269</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>1603018.44583452</v>
+        <v>1598613.00503458</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>1579094.50770139</v>
+        <v>1579901.01849853</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>1577566.58101082</v>
+        <v>1578392.35820214</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>1</v>
@@ -3557,16 +3557,16 @@
         <v>0.8</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>64.330080986023</v>
+        <v>48.8720939159393</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>1604606.51020619</v>
+        <v>1607608.80920049</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>1576840.11237865</v>
+        <v>1577555.38824859</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>1575335.13678162</v>
+        <v>1576890.67148575</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>1</v>
@@ -3586,16 +3586,16 @@
         <v>0.8</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>89.5324568748474</v>
+        <v>29.0170209407806</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>1600630.33685651</v>
+        <v>1605429.86435061</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>1579703.92283615</v>
+        <v>1578479.31565793</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>1578272.16525379</v>
+        <v>1576902.5683921</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>1</v>
@@ -3615,16 +3615,16 @@
         <v>0.8</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>86.5739099979401</v>
+        <v>55.7342648506165</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>1616180.38510237</v>
+        <v>1631712.68668306</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>1577955.54781901</v>
+        <v>1580231.24134127</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>1576429.76929536</v>
+        <v>1578813.94599287</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>1</v>
@@ -3644,16 +3644,16 @@
         <v>0.8</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>76.9480559825897</v>
+        <v>41.1907510757446</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>1594836.61376184</v>
+        <v>1604761.88289308</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>1579434.88349145</v>
+        <v>1581770.75046045</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>1578129.17256543</v>
+        <v>1580360.55026693</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>1</v>
@@ -3673,16 +3673,16 @@
         <v>0.8</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>93.9818749427795</v>
+        <v>54.8258728981018</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>1590923.5068214</v>
+        <v>1587878.49955328</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>1578279.97479123</v>
+        <v>1584921.05371136</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>1576914.67091905</v>
+        <v>1583688.35561218</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>1</v>
@@ -3702,16 +3702,16 @@
         <v>0.8</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>53.7640759944916</v>
+        <v>45.9714369773865</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>1590023.66420294</v>
+        <v>1593239.88549574</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>1577600.47170053</v>
+        <v>1580064.3125039</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>1576645.96680846</v>
+        <v>1579279.36016809</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>1</v>
@@ -3731,16 +3731,16 @@
         <v>0.8</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>71.5206489562988</v>
+        <v>83.470596075058</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>1591435.93435566</v>
+        <v>1592240.09217701</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>1579159.68779517</v>
+        <v>1582786.30320912</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>1578207.62516115</v>
+        <v>1581502.24381399</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>1</v>
@@ -3760,16 +3760,16 @@
         <v>0.8</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>138.645728111267</v>
+        <v>66.4847459793091</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>1590904.20241379</v>
+        <v>1587410.14688533</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>1577938.52621325</v>
+        <v>1581606.56627802</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>1576439.38550319</v>
+        <v>1580577.45315577</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>1</v>
@@ -3789,16 +3789,16 @@
         <v>0.8</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>175.89239692688</v>
+        <v>65.1973299980164</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>1589996.85058707</v>
+        <v>1591170.41767633</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>1580514.17131322</v>
+        <v>1586042.34122333</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>1579109.41379158</v>
+        <v>1584685.47140849</v>
       </c>
       <c r="I16" s="1" t="n">
         <v>1</v>
@@ -3818,16 +3818,16 @@
         <v>0.8</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>164.87415599823</v>
+        <v>94.8011839389801</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>1594561.67845399</v>
+        <v>1588418.36916974</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>1578627.19473146</v>
+        <v>1581588.76268805</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>1577255.70009271</v>
+        <v>1580213.7853589</v>
       </c>
       <c r="I17" s="1" t="n">
         <v>1</v>
@@ -3847,16 +3847,16 @@
         <v>0.8</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>156.629613876343</v>
+        <v>87.0909759998322</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>1592927.31026371</v>
+        <v>1595044.75492352</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>1579231.11521953</v>
+        <v>1584025.00741243</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>1577665.13588982</v>
+        <v>1582478.96848084</v>
       </c>
       <c r="I18" s="1" t="n">
         <v>1</v>
@@ -3876,16 +3876,16 @@
         <v>0.8</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>234.193834066391</v>
+        <v>67.5835518836975</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>1590711.56167719</v>
+        <v>1591994.51102839</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>1579386.52983054</v>
+        <v>1580846.34294189</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>1578046.93669782</v>
+        <v>1579464.02620361</v>
       </c>
       <c r="I19" s="1" t="n">
         <v>1</v>
@@ -3905,16 +3905,16 @@
         <v>0.8</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>84.918624162674</v>
+        <v>93.5763680934906</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>1598259.58452287</v>
+        <v>1590338.07519471</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>1579212.97541658</v>
+        <v>1582522.74284259</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>1577638.00981401</v>
+        <v>1581243.20121689</v>
       </c>
       <c r="I20" s="1" t="n">
         <v>1</v>
@@ -3934,16 +3934,16 @@
         <v>0.8</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>110.043798923492</v>
+        <v>62.4761638641357</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>1586469.1595709</v>
+        <v>1594268.42728414</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>1578709.84146756</v>
+        <v>1583175.76013599</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>1577562.09643088</v>
+        <v>1582316.60089317</v>
       </c>
       <c r="I21" s="1" t="n">
         <v>1</v>
@@ -3963,16 +3963,16 @@
         <v>0.8</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>128.607691049576</v>
+        <v>116.526592969894</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>1586441.08650152</v>
+        <v>1586891.26328921</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>1579236.49020143</v>
+        <v>1584830.57108274</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>1577846.1674174</v>
+        <v>1584165.83244982</v>
       </c>
       <c r="I22" s="1" t="n">
         <v>1</v>
@@ -3992,16 +3992,16 @@
         <v>0.8</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>200.797916889191</v>
+        <v>117.032840967178</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>1588356.08915187</v>
+        <v>1586623.84575122</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>1579110.80589662</v>
+        <v>1582480.30781951</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>1577548.11664092</v>
+        <v>1580994.9566696</v>
       </c>
       <c r="I23" s="1" t="n">
         <v>1</v>
@@ -4021,16 +4021,16 @@
         <v>0.8</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>242.195282936096</v>
+        <v>116.921413183212</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>1587820.14662349</v>
+        <v>1589033.62185586</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>1579510.74505849</v>
+        <v>1583721.3160297</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>1577932.60704872</v>
+        <v>1582197.53285547</v>
       </c>
       <c r="I24" s="1" t="n">
         <v>1</v>
@@ -4050,16 +4050,16 @@
         <v>0.8</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>152.210456132889</v>
+        <v>707.490700006485</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>1586848.64396368</v>
+        <v>1584378.99245355</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>1580663.50081793</v>
+        <v>1586371.24455589</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>1579116.43587687</v>
+        <v>1584837.17398653</v>
       </c>
       <c r="I25" s="1" t="n">
         <v>1</v>
@@ -4079,16 +4079,16 @@
         <v>0.8</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>141.860789060593</v>
+        <v>135.56609582901</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>1584629.17467039</v>
+        <v>1586923.01969484</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>1581167.0053513</v>
+        <v>1585853.12641355</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>1580152.67398866</v>
+        <v>1584279.18751803</v>
       </c>
       <c r="I26" s="1" t="n">
         <v>1</v>
@@ -4108,16 +4108,16 @@
         <v>0.8</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>150.780754089355</v>
+        <v>122.575870990753</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>1591343.42746374</v>
+        <v>1586630.95883975</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>1578665.60360018</v>
+        <v>1583387.02599784</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>1577302.43328486</v>
+        <v>1582004.36639934</v>
       </c>
       <c r="I27" s="1" t="n">
         <v>1</v>
@@ -4137,16 +4137,16 @@
         <v>0.8</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>104.220182180405</v>
+        <v>276.580970048904</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>1590820.92625862</v>
+        <v>1588529.73079854</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>1579550.92641506</v>
+        <v>1583816.37853003</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>1578598.69471647</v>
+        <v>1582248.53015809</v>
       </c>
       <c r="I28" s="1" t="n">
         <v>1</v>
@@ -4166,16 +4166,16 @@
         <v>0.8</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>139.531392097473</v>
+        <v>84.3263552188873</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>1587105.2411882</v>
+        <v>1588466.31499013</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>1580088.79173515</v>
+        <v>1583369.4126992</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>1578624.21273263</v>
+        <v>1582114.23384515</v>
       </c>
       <c r="I29" s="1" t="n">
         <v>1</v>
@@ -4195,16 +4195,16 @@
         <v>0.8</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>135.496556043625</v>
+        <v>275.749969005585</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>1589204.99614498</v>
+        <v>1588369.28399777</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>1579109.24880139</v>
+        <v>1582997.39802939</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>1577749.22451344</v>
+        <v>1581822.10424561</v>
       </c>
       <c r="I30" s="1" t="n">
         <v>1</v>
@@ -4224,16 +4224,16 @@
         <v>0.8</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>113.278120994568</v>
+        <v>97.9430239200592</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>1585505.46523191</v>
+        <v>1591266.31555116</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>1578031.93936785</v>
+        <v>1583048.82398351</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>1577027.95959849</v>
+        <v>1581714.55939657</v>
       </c>
       <c r="I31" s="1" t="n">
         <v>1</v>
@@ -4253,16 +4253,16 @@
         <v>0.8</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>114.671120882034</v>
+        <v>116.853828907013</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>1583685.06314943</v>
+        <v>1586682.15448188</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>1580531.01555037</v>
+        <v>1585837.41193298</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>1579101.80805759</v>
+        <v>1584721.50944951</v>
       </c>
       <c r="I32" s="1" t="n">
         <v>1</v>
@@ -4282,16 +4282,16 @@
         <v>0.8</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>193.15611410141</v>
+        <v>135.767945051193</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>1587260.52189939</v>
+        <v>1585797.28189321</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>1579418.10207176</v>
+        <v>1584035.28105288</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>1578505.70583542</v>
+        <v>1582565.40870354</v>
       </c>
       <c r="I33" s="1" t="n">
         <v>1</v>
@@ -4311,16 +4311,16 @@
         <v>0.8</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>101.365359783173</v>
+        <v>138.23987698555</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>1585665.41422154</v>
+        <v>1586447.71831827</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>1580595.232407</v>
+        <v>1583183.768401</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>1579119.20046406</v>
+        <v>1581931.79864024</v>
       </c>
       <c r="I34" s="1" t="n">
         <v>1</v>
@@ -4340,16 +4340,16 @@
         <v>0.8</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>135.642445802689</v>
+        <v>142.992493867874</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>1586582.62915173</v>
+        <v>1583512.65587125</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>1580554.80041418</v>
+        <v>1586202.22445517</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>1579232.76097584</v>
+        <v>1585187.61604227</v>
       </c>
       <c r="I35" s="1" t="n">
         <v>1</v>
@@ -4369,16 +4369,16 @@
         <v>0.8</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>101.910365104675</v>
+        <v>233.561044931412</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>1583843.18761548</v>
+        <v>1584211.88982372</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>1581476.14150597</v>
+        <v>1587307.4776649</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>1580298.2413438</v>
+        <v>1585860.44834086</v>
       </c>
       <c r="I36" s="1" t="n">
         <v>1</v>
@@ -4398,16 +4398,16 @@
         <v>0.8</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>163.171725034714</v>
+        <v>259.749316930771</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>1586938.89657702</v>
+        <v>1585206.55386817</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>1579023.58910734</v>
+        <v>1582632.37424774</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>1577918.25530933</v>
+        <v>1581418.66705274</v>
       </c>
       <c r="I37" s="1" t="n">
         <v>1</v>
@@ -4427,16 +4427,16 @@
         <v>0.8</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>172.259809017181</v>
+        <v>131.10368514061</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>1585655.12453837</v>
+        <v>1585403.84734505</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>1580114.8331134</v>
+        <v>1584145.46727622</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>1578640.42388555</v>
+        <v>1582960.77675005</v>
       </c>
       <c r="I38" s="1" t="n">
         <v>1</v>
@@ -4456,16 +4456,16 @@
         <v>0.8</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>149.619560956955</v>
+        <v>108.715344905853</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>1586760.1747018</v>
+        <v>1587220.49289922</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>1579422.84434459</v>
+        <v>1583032.90574134</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>1578293.44766111</v>
+        <v>1582198.8173393</v>
       </c>
       <c r="I39" s="1" t="n">
         <v>1</v>
@@ -4485,16 +4485,16 @@
         <v>0.8</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>200.202540874481</v>
+        <v>70.3845059871674</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>1588985.33090955</v>
+        <v>1586961.14788865</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>1578597.73508254</v>
+        <v>1582786.78139022</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>1577318.27347439</v>
+        <v>1581209.70995085</v>
       </c>
       <c r="I40" s="1" t="n">
         <v>1</v>
@@ -4514,16 +4514,16 @@
         <v>0.8</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>160.087610006332</v>
+        <v>417.462713003159</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>1584539.63124783</v>
+        <v>1586263.65435552</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>1578630.34326095</v>
+        <v>1584320.14371111</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>1577380.58717846</v>
+        <v>1582754.99037004</v>
       </c>
       <c r="I41" s="1" t="n">
         <v>1</v>
@@ -4543,16 +4543,16 @@
         <v>0.8</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>193.559185028076</v>
+        <v>185.591426849365</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>1583713.0974524</v>
+        <v>1584921.51657701</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>1580127.5017663</v>
+        <v>1587317.47104061</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>1579536.26477313</v>
+        <v>1586130.23348832</v>
       </c>
       <c r="I42" s="1" t="n">
         <v>1</v>
@@ -4572,16 +4572,16 @@
         <v>0.8</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>178.185385942459</v>
+        <v>166.550366163254</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>1586594.15095759</v>
+        <v>1586104.85084306</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>1580309.70757079</v>
+        <v>1584065.17591079</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>1579243.79865215</v>
+        <v>1583084.23804442</v>
       </c>
       <c r="I43" s="1" t="n">
         <v>1</v>
@@ -4601,16 +4601,16 @@
         <v>0.8</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>158.138448953629</v>
+        <v>219.680715799332</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>1585405.97642517</v>
+        <v>1584441.83107516</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>1580847.59139037</v>
+        <v>1584954.81745562</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>1579297.67444782</v>
+        <v>1583901.83802162</v>
       </c>
       <c r="I44" s="1" t="n">
         <v>1</v>
@@ -4630,16 +4630,16 @@
         <v>0.8</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>226.823050022125</v>
+        <v>127.571920871735</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>1584437.94893086</v>
+        <v>1583722.80596393</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>1580665.48337212</v>
+        <v>1586643.13222569</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>1579740.5723714</v>
+        <v>1585429.84336132</v>
       </c>
       <c r="I45" s="1" t="n">
         <v>1</v>
@@ -4659,16 +4659,16 @@
         <v>0.8</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>123.22971200943</v>
+        <v>229.532659053802</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>1583855.83262298</v>
+        <v>1583619.56440697</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>1581625.93107815</v>
+        <v>1587742.84734386</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>1580378.79716787</v>
+        <v>1586209.98650628</v>
       </c>
       <c r="I46" s="1" t="n">
         <v>1</v>
@@ -4688,16 +4688,16 @@
         <v>0.8</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>169.990456819534</v>
+        <v>192.121467113495</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>1583903.40615426</v>
+        <v>1583648.73024582</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>1580860.61373614</v>
+        <v>1583283.2745722</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>1579282.06965827</v>
+        <v>1581829.76028897</v>
       </c>
       <c r="I47" s="1" t="n">
         <v>1</v>
@@ -4717,16 +4717,16 @@
         <v>0.8</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>214.895797014236</v>
+        <v>144.492789983749</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>1585028.80884665</v>
+        <v>1585994.66542504</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>1580940.21890864</v>
+        <v>1583839.01785115</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>1579430.30669896</v>
+        <v>1582860.94561734</v>
       </c>
       <c r="I48" s="1" t="n">
         <v>1</v>
@@ -4746,16 +4746,16 @@
         <v>0.8</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>125.573070049286</v>
+        <v>170.349097013474</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>1583878.99060132</v>
+        <v>1585544.57975809</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>1579290.70455418</v>
+        <v>1583619.33387098</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>1578130.43899793</v>
+        <v>1582926.55947031</v>
       </c>
       <c r="I49" s="1" t="n">
         <v>1</v>
@@ -4775,16 +4775,16 @@
         <v>0.8</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>189.101440906525</v>
+        <v>153.824398040771</v>
       </c>
       <c r="F50" s="1" t="n">
-        <v>1585683.42284444</v>
+        <v>1584955.86631937</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>1579162.19456918</v>
+        <v>1586762.60661297</v>
       </c>
       <c r="H50" s="1" t="n">
-        <v>1578245.8092008</v>
+        <v>1585357.28034398</v>
       </c>
       <c r="I50" s="1" t="n">
         <v>1</v>
@@ -4795,25 +4795,25 @@
         <v>9</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D51" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>246.555992126465</v>
+        <v>208.742499828339</v>
       </c>
       <c r="F51" s="1" t="n">
-        <v>1583849.05673492</v>
+        <v>1585456.08706817</v>
       </c>
       <c r="G51" s="1" t="n">
-        <v>1580371.93487521</v>
+        <v>1585618.37684038</v>
       </c>
       <c r="H51" s="1" t="n">
-        <v>1579396.16940579</v>
+        <v>1584094.12530016</v>
       </c>
       <c r="I51" s="1" t="n">
         <v>1</v>
@@ -4827,22 +4827,22 @@
         <v>60</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>475.731444835663</v>
+        <v>229.77436709404</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>1584995.62578145</v>
+        <v>1584557.69265718</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>1580623.39925705</v>
+        <v>1586815.90184721</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>1579068.44642371</v>
+        <v>1585503.27916933</v>
       </c>
       <c r="I52" s="1" t="n">
         <v>1</v>
@@ -4856,22 +4856,22 @@
         <v>60</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>272.259711027145</v>
+        <v>189.632282972336</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>1583369.5840361</v>
+        <v>1583310.8533123</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>1581757.74913026</v>
+        <v>1584614.19253118</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>1580457.40763758</v>
+        <v>1583506.86903293</v>
       </c>
       <c r="I53" s="1" t="n">
         <v>1</v>
@@ -4885,22 +4885,22 @@
         <v>60</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>227.12714600563</v>
+        <v>146.582262992859</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>1584417.22457917</v>
+        <v>1584111.26181246</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>1581407.65832236</v>
+        <v>1585207.35487287</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>1579830.22127322</v>
+        <v>1583994.95767569</v>
       </c>
       <c r="I54" s="1" t="n">
         <v>1</v>
@@ -4914,22 +4914,22 @@
         <v>60</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>277.893800973892</v>
+        <v>155.563980102539</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>1583027.06603473</v>
+        <v>1583236.63640985</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>1581827.47490036</v>
+        <v>1586093.84682876</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>1580639.92096657</v>
+        <v>1584962.47636777</v>
       </c>
       <c r="I55" s="1" t="n">
         <v>1</v>
@@ -4943,22 +4943,22 @@
         <v>60</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D56" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>280.705342054367</v>
+        <v>268.274407863617</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>1584328.64338904</v>
+        <v>1582355.17931934</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>1581258.76971277</v>
+        <v>1586679.89940384</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>1579875.22922282</v>
+        <v>1585742.81050103</v>
       </c>
       <c r="I56" s="1" t="n">
         <v>1</v>
@@ -4972,22 +4972,22 @@
         <v>60</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D57" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>119.138319969177</v>
+        <v>257.287281036377</v>
       </c>
       <c r="F57" s="1" t="n">
-        <v>1583629.07930784</v>
+        <v>1583548.07059115</v>
       </c>
       <c r="G57" s="1" t="n">
-        <v>1581460.25574791</v>
+        <v>1584013.16174364</v>
       </c>
       <c r="H57" s="1" t="n">
-        <v>1579932.89521476</v>
+        <v>1582586.84315362</v>
       </c>
       <c r="I57" s="1" t="n">
         <v>1</v>
@@ -5001,22 +5001,22 @@
         <v>60</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D58" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>245.099011898041</v>
+        <v>490.127820014954</v>
       </c>
       <c r="F58" s="1" t="n">
-        <v>1585331.3297353</v>
+        <v>1585224.48573724</v>
       </c>
       <c r="G58" s="1" t="n">
-        <v>1579498.75541642</v>
+        <v>1585130.93704899</v>
       </c>
       <c r="H58" s="1" t="n">
-        <v>1578399.9007343</v>
+        <v>1583924.20067496</v>
       </c>
       <c r="I58" s="1" t="n">
         <v>1</v>
@@ -5030,22 +5030,22 @@
         <v>60</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D59" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>219.135381937027</v>
+        <v>220.907367944717</v>
       </c>
       <c r="F59" s="1" t="n">
-        <v>1584564.17468222</v>
+        <v>1584299.73954514</v>
       </c>
       <c r="G59" s="1" t="n">
-        <v>1579708.14757404</v>
+        <v>1585026.34840798</v>
       </c>
       <c r="H59" s="1" t="n">
-        <v>1578196.84525385</v>
+        <v>1583700.62041977</v>
       </c>
       <c r="I59" s="1" t="n">
         <v>1</v>
@@ -5059,22 +5059,22 @@
         <v>60</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D60" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>244.15805721283</v>
+        <v>148.08442401886</v>
       </c>
       <c r="F60" s="1" t="n">
-        <v>1584318.52519162</v>
+        <v>1583766.25676006</v>
       </c>
       <c r="G60" s="1" t="n">
-        <v>1580268.29145891</v>
+        <v>1586677.64134308</v>
       </c>
       <c r="H60" s="1" t="n">
-        <v>1578740.44861875</v>
+        <v>1585159.74088152</v>
       </c>
       <c r="I60" s="1" t="n">
         <v>1</v>
@@ -5085,25 +5085,25 @@
         <v>9</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D61" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>293.129171848297</v>
+        <v>181.955325126648</v>
       </c>
       <c r="F61" s="1" t="n">
-        <v>1582979.25740534</v>
+        <v>1583332.69268534</v>
       </c>
       <c r="G61" s="1" t="n">
-        <v>1580118.50243242</v>
+        <v>1585641.68124584</v>
       </c>
       <c r="H61" s="1" t="n">
-        <v>1579451.31154622</v>
+        <v>1584152.45417841</v>
       </c>
       <c r="I61" s="1" t="n">
         <v>1</v>
@@ -5117,22 +5117,22 @@
         <v>70</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>309.850659132004</v>
+        <v>276.987587928772</v>
       </c>
       <c r="F62" s="1" t="n">
-        <v>1585255.50048952</v>
+        <v>1583961.85923983</v>
       </c>
       <c r="G62" s="1" t="n">
-        <v>1580811.73637238</v>
+        <v>1586872.80530792</v>
       </c>
       <c r="H62" s="1" t="n">
-        <v>1579433.83791882</v>
+        <v>1585456.91970576</v>
       </c>
       <c r="I62" s="1" t="n">
         <v>1</v>
@@ -5146,22 +5146,22 @@
         <v>70</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>310.993762969971</v>
+        <v>241.475115060806</v>
       </c>
       <c r="F63" s="1" t="n">
-        <v>1582280.4291254</v>
+        <v>1584036.79963924</v>
       </c>
       <c r="G63" s="1" t="n">
-        <v>1581302.92479723</v>
+        <v>1585072.96522457</v>
       </c>
       <c r="H63" s="1" t="n">
-        <v>1580629.76150707</v>
+        <v>1584005.9600892</v>
       </c>
       <c r="I63" s="1" t="n">
         <v>1</v>
@@ -5175,22 +5175,22 @@
         <v>70</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>366.954545974731</v>
+        <v>505.602874040604</v>
       </c>
       <c r="F64" s="1" t="n">
-        <v>1583443.18794441</v>
+        <v>1583934.90590506</v>
       </c>
       <c r="G64" s="1" t="n">
-        <v>1581053.71509108</v>
+        <v>1585437.84131645</v>
       </c>
       <c r="H64" s="1" t="n">
-        <v>1579989.4932578</v>
+        <v>1583869.36737589</v>
       </c>
       <c r="I64" s="1" t="n">
         <v>1</v>
@@ -5204,22 +5204,22 @@
         <v>70</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>287.624427080154</v>
+        <v>200.869102954864</v>
       </c>
       <c r="F65" s="1" t="n">
-        <v>1583758.04501548</v>
+        <v>1582902.19096599</v>
       </c>
       <c r="G65" s="1" t="n">
-        <v>1583318.84591921</v>
+        <v>1586186.91762598</v>
       </c>
       <c r="H65" s="1" t="n">
-        <v>1581767.11831582</v>
+        <v>1584854.23226042</v>
       </c>
       <c r="I65" s="1" t="n">
         <v>1</v>
@@ -5233,22 +5233,22 @@
         <v>70</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D66" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>322.06365609169</v>
+        <v>332.30419588089</v>
       </c>
       <c r="F66" s="1" t="n">
-        <v>1583587.91246969</v>
+        <v>1582651.38552995</v>
       </c>
       <c r="G66" s="1" t="n">
-        <v>1580933.97733798</v>
+        <v>1586846.04983033</v>
       </c>
       <c r="H66" s="1" t="n">
-        <v>1580010.2200458</v>
+        <v>1585269.93809981</v>
       </c>
       <c r="I66" s="1" t="n">
         <v>1</v>
@@ -5262,22 +5262,22 @@
         <v>70</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D67" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>166.110913991928</v>
+        <v>223.344797134399</v>
       </c>
       <c r="F67" s="1" t="n">
-        <v>1583247.55118448</v>
+        <v>1582548.36270912</v>
       </c>
       <c r="G67" s="1" t="n">
-        <v>1581043.76831255</v>
+        <v>1583381.35026856</v>
       </c>
       <c r="H67" s="1" t="n">
-        <v>1579609.39825197</v>
+        <v>1582474.23934698</v>
       </c>
       <c r="I67" s="1" t="n">
         <v>1</v>
@@ -5291,22 +5291,22 @@
         <v>70</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D68" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>342.621351957321</v>
+        <v>587.983242034912</v>
       </c>
       <c r="F68" s="1" t="n">
-        <v>1584830.8865363</v>
+        <v>1583406.10778597</v>
       </c>
       <c r="G68" s="1" t="n">
-        <v>1580015.12365237</v>
+        <v>1586506.54229069</v>
       </c>
       <c r="H68" s="1" t="n">
-        <v>1578842.46996866</v>
+        <v>1584935.26739333</v>
       </c>
       <c r="I68" s="1" t="n">
         <v>1</v>
@@ -5320,22 +5320,22 @@
         <v>70</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D69" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>283.052373886108</v>
+        <v>271.943829059601</v>
       </c>
       <c r="F69" s="1" t="n">
-        <v>1584740.46321622</v>
+        <v>1583896.91086003</v>
       </c>
       <c r="G69" s="1" t="n">
-        <v>1579757.00918143</v>
+        <v>1584653.25662903</v>
       </c>
       <c r="H69" s="1" t="n">
-        <v>1578668.95937934</v>
+        <v>1583468.73816289</v>
       </c>
       <c r="I69" s="1" t="n">
         <v>1</v>
@@ -5349,22 +5349,22 @@
         <v>70</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D70" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>254.520780086517</v>
+        <v>130.224657058716</v>
       </c>
       <c r="F70" s="1" t="n">
-        <v>1584176.42667726</v>
+        <v>1583675.37399235</v>
       </c>
       <c r="G70" s="1" t="n">
-        <v>1580689.06445731</v>
+        <v>1586734.24551942</v>
       </c>
       <c r="H70" s="1" t="n">
-        <v>1579299.86465239</v>
+        <v>1585894.64982326</v>
       </c>
       <c r="I70" s="1" t="n">
         <v>1</v>
@@ -5375,25 +5375,25 @@
         <v>9</v>
       </c>
       <c r="B71" s="1" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D71" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>294.89714884758</v>
+        <v>187.293338060379</v>
       </c>
       <c r="F71" s="1" t="n">
-        <v>1582920.75081659</v>
+        <v>1582863.01939752</v>
       </c>
       <c r="G71" s="1" t="n">
-        <v>1580369.47032562</v>
+        <v>1585510.40967162</v>
       </c>
       <c r="H71" s="1" t="n">
-        <v>1579655.08787515</v>
+        <v>1583967.06175106</v>
       </c>
       <c r="I71" s="1" t="n">
         <v>1</v>
@@ -5407,22 +5407,22 @@
         <v>80</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>159.425579071045</v>
+        <v>276.513188123703</v>
       </c>
       <c r="F72" s="1" t="n">
-        <v>1583120.00629924</v>
+        <v>1582545.5138654</v>
       </c>
       <c r="G72" s="1" t="n">
-        <v>1580532.78725132</v>
+        <v>1586141.34244439</v>
       </c>
       <c r="H72" s="1" t="n">
-        <v>1579794.83314616</v>
+        <v>1585375.07568592</v>
       </c>
       <c r="I72" s="1" t="n">
         <v>1</v>
@@ -5436,22 +5436,22 @@
         <v>80</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>255.402205944061</v>
+        <v>353.597440958023</v>
       </c>
       <c r="F73" s="1" t="n">
-        <v>1582581.62241847</v>
+        <v>1582894.97392717</v>
       </c>
       <c r="G73" s="1" t="n">
-        <v>1581437.70714497</v>
+        <v>1585347.27737905</v>
       </c>
       <c r="H73" s="1" t="n">
-        <v>1580361.82747115</v>
+        <v>1583995.69569266</v>
       </c>
       <c r="I73" s="1" t="n">
         <v>1</v>
@@ -5465,22 +5465,22 @@
         <v>80</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>277.09312415123</v>
+        <v>227.550336122513</v>
       </c>
       <c r="F74" s="1" t="n">
-        <v>1583018.24027682</v>
+        <v>1583146.63345806</v>
       </c>
       <c r="G74" s="1" t="n">
-        <v>1581289.23713205</v>
+        <v>1585962.21239399</v>
       </c>
       <c r="H74" s="1" t="n">
-        <v>1580151.18679269</v>
+        <v>1584497.27622183</v>
       </c>
       <c r="I74" s="1" t="n">
         <v>1</v>
@@ -5494,22 +5494,22 @@
         <v>80</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>250.477954864502</v>
+        <v>198.61115193367</v>
       </c>
       <c r="F75" s="1" t="n">
-        <v>1583525.68919215</v>
+        <v>1583357.96285456</v>
       </c>
       <c r="G75" s="1" t="n">
-        <v>1583469.13639613</v>
+        <v>1588300.81638422</v>
       </c>
       <c r="H75" s="1" t="n">
-        <v>1582032.1146276</v>
+        <v>1586908.75620554</v>
       </c>
       <c r="I75" s="1" t="n">
         <v>1</v>
@@ -5523,22 +5523,22 @@
         <v>80</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D76" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>249.656455039978</v>
+        <v>327.879044055939</v>
       </c>
       <c r="F76" s="1" t="n">
-        <v>1583522.4976551</v>
+        <v>1582047.78522845</v>
       </c>
       <c r="G76" s="1" t="n">
-        <v>1581119.92399154</v>
+        <v>1586067.88347698</v>
       </c>
       <c r="H76" s="1" t="n">
-        <v>1579638.86696023</v>
+        <v>1584523.2451068</v>
       </c>
       <c r="I76" s="1" t="n">
         <v>1</v>
@@ -5552,22 +5552,22 @@
         <v>80</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D77" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E77" s="1" t="n">
-        <v>377.110293865204</v>
+        <v>182.084527015686</v>
       </c>
       <c r="F77" s="1" t="n">
-        <v>1583443.93251455</v>
+        <v>1582210.83350146</v>
       </c>
       <c r="G77" s="1" t="n">
-        <v>1580833.90372493</v>
+        <v>1583739.08165695</v>
       </c>
       <c r="H77" s="1" t="n">
-        <v>1579557.65964037</v>
+        <v>1582313.93634226</v>
       </c>
       <c r="I77" s="1" t="n">
         <v>1</v>
@@ -5581,22 +5581,22 @@
         <v>80</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D78" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E78" s="1" t="n">
-        <v>446.492505073547</v>
+        <v>112.499421834946</v>
       </c>
       <c r="F78" s="1" t="n">
-        <v>1583835.14323232</v>
+        <v>1582667.17675119</v>
       </c>
       <c r="G78" s="1" t="n">
-        <v>1579526.02618202</v>
+        <v>1586708.93831605</v>
       </c>
       <c r="H78" s="1" t="n">
-        <v>1578684.48455276</v>
+        <v>1585394.51816291</v>
       </c>
       <c r="I78" s="1" t="n">
         <v>1</v>
@@ -5610,22 +5610,22 @@
         <v>80</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D79" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E79" s="1" t="n">
-        <v>179.392414093018</v>
+        <v>270.085673809052</v>
       </c>
       <c r="F79" s="1" t="n">
-        <v>1583399.52171697</v>
+        <v>1583526.280559</v>
       </c>
       <c r="G79" s="1" t="n">
-        <v>1579760.61781717</v>
+        <v>1584682.57862046</v>
       </c>
       <c r="H79" s="1" t="n">
-        <v>1578740.14066414</v>
+        <v>1583244.59973407</v>
       </c>
       <c r="I79" s="1" t="n">
         <v>1</v>
@@ -5639,22 +5639,22 @@
         <v>80</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D80" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E80" s="1" t="n">
-        <v>340.978268861771</v>
+        <v>311.323575973511</v>
       </c>
       <c r="F80" s="1" t="n">
-        <v>1582814.65292965</v>
+        <v>1582728.87171033</v>
       </c>
       <c r="G80" s="1" t="n">
-        <v>1580063.48144384</v>
+        <v>1587934.57152638</v>
       </c>
       <c r="H80" s="1" t="n">
-        <v>1579278.61821005</v>
+        <v>1586416.53088794</v>
       </c>
       <c r="I80" s="1" t="n">
         <v>1</v>
@@ -5665,25 +5665,25 @@
         <v>9</v>
       </c>
       <c r="B81" s="1" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D81" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E81" s="1" t="n">
-        <v>268.04655122757</v>
+        <v>136.254046916962</v>
       </c>
       <c r="F81" s="1" t="n">
-        <v>1583742.32977854</v>
+        <v>1582542.76111173</v>
       </c>
       <c r="G81" s="1" t="n">
-        <v>1581040.04160585</v>
+        <v>1587433.28582119</v>
       </c>
       <c r="H81" s="1" t="n">
-        <v>1579711.27781925</v>
+        <v>1585930.82419826</v>
       </c>
       <c r="I81" s="1" t="n">
         <v>1</v>
@@ -5697,22 +5697,22 @@
         <v>90</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E82" s="1" t="n">
-        <v>138.522363185883</v>
+        <v>201.427353858948</v>
       </c>
       <c r="F82" s="1" t="n">
-        <v>1583301.57263245</v>
+        <v>1583791.86980787</v>
       </c>
       <c r="G82" s="1" t="n">
-        <v>1581257.54647226</v>
+        <v>1586426.75562056</v>
       </c>
       <c r="H82" s="1" t="n">
-        <v>1579682.75925313</v>
+        <v>1585376.01982724</v>
       </c>
       <c r="I82" s="1" t="n">
         <v>1</v>
@@ -5726,22 +5726,22 @@
         <v>90</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E83" s="1" t="n">
-        <v>207.237508058548</v>
+        <v>892.972709178925</v>
       </c>
       <c r="F83" s="1" t="n">
-        <v>1583500.13448523</v>
+        <v>1582960.3776458</v>
       </c>
       <c r="G83" s="1" t="n">
-        <v>1582242.80393569</v>
+        <v>1585990.66628871</v>
       </c>
       <c r="H83" s="1" t="n">
-        <v>1580673.62601172</v>
+        <v>1584488.12247471</v>
       </c>
       <c r="I83" s="1" t="n">
         <v>1</v>
@@ -5755,22 +5755,22 @@
         <v>90</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E84" s="1" t="n">
-        <v>267.668118953705</v>
+        <v>497.720412969589</v>
       </c>
       <c r="F84" s="1" t="n">
-        <v>1583059.23115878</v>
+        <v>1581993.24914408</v>
       </c>
       <c r="G84" s="1" t="n">
-        <v>1581573.50924763</v>
+        <v>1586445.81322026</v>
       </c>
       <c r="H84" s="1" t="n">
-        <v>1580103.77600597</v>
+        <v>1584883.18129935</v>
       </c>
       <c r="I84" s="1" t="n">
         <v>1</v>
@@ -5784,22 +5784,22 @@
         <v>90</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E85" s="1" t="n">
-        <v>309.870620012283</v>
+        <v>242.603593111038</v>
       </c>
       <c r="F85" s="1" t="n">
-        <v>1583246.10148602</v>
+        <v>1582773.72660697</v>
       </c>
       <c r="G85" s="1" t="n">
-        <v>1583682.84459206</v>
+        <v>1588205.08228975</v>
       </c>
       <c r="H85" s="1" t="n">
-        <v>1582167.40767354</v>
+        <v>1586860.58486746</v>
       </c>
       <c r="I85" s="1" t="n">
         <v>1</v>
@@ -5813,22 +5813,22 @@
         <v>90</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D86" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E86" s="1" t="n">
-        <v>283.848458051682</v>
+        <v>216.341293096542</v>
       </c>
       <c r="F86" s="1" t="n">
-        <v>1582970.71823689</v>
+        <v>1582390.07427175</v>
       </c>
       <c r="G86" s="1" t="n">
-        <v>1581532.98504284</v>
+        <v>1587214.81130862</v>
       </c>
       <c r="H86" s="1" t="n">
-        <v>1580374.53973297</v>
+        <v>1585812.79443685</v>
       </c>
       <c r="I86" s="1" t="n">
         <v>1</v>
@@ -5842,22 +5842,22 @@
         <v>90</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D87" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E87" s="1" t="n">
-        <v>275.345361948013</v>
+        <v>247.875205993652</v>
       </c>
       <c r="F87" s="1" t="n">
-        <v>1583385.33653128</v>
+        <v>1582381.37368995</v>
       </c>
       <c r="G87" s="1" t="n">
-        <v>1580926.47678397</v>
+        <v>1583762.71914135</v>
       </c>
       <c r="H87" s="1" t="n">
-        <v>1579698.68007259</v>
+        <v>1582919.24589375</v>
       </c>
       <c r="I87" s="1" t="n">
         <v>1</v>
@@ -5871,22 +5871,22 @@
         <v>90</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D88" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E88" s="1" t="n">
-        <v>439.348802089691</v>
+        <v>216.893185853958</v>
       </c>
       <c r="F88" s="1" t="n">
-        <v>1584353.76182084</v>
+        <v>1582323.2866064</v>
       </c>
       <c r="G88" s="1" t="n">
-        <v>1580233.8552291</v>
+        <v>1586620.70297001</v>
       </c>
       <c r="H88" s="1" t="n">
-        <v>1579094.72801669</v>
+        <v>1585396.18198929</v>
       </c>
       <c r="I88" s="1" t="n">
         <v>1</v>
@@ -5900,22 +5900,22 @@
         <v>90</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D89" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E89" s="1" t="n">
-        <v>178.133541107178</v>
+        <v>582.778474092484</v>
       </c>
       <c r="F89" s="1" t="n">
-        <v>1583376.11036026</v>
+        <v>1583794.55769877</v>
       </c>
       <c r="G89" s="1" t="n">
-        <v>1580383.46383455</v>
+        <v>1585260.82407068</v>
       </c>
       <c r="H89" s="1" t="n">
-        <v>1578930.16131561</v>
+        <v>1583730.93225681</v>
       </c>
       <c r="I89" s="1" t="n">
         <v>1</v>
@@ -5929,22 +5929,22 @@
         <v>90</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D90" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E90" s="1" t="n">
-        <v>283.230987071991</v>
+        <v>277.526350021362</v>
       </c>
       <c r="F90" s="1" t="n">
-        <v>1583052.57440169</v>
+        <v>1583176.27489718</v>
       </c>
       <c r="G90" s="1" t="n">
-        <v>1580778.55975949</v>
+        <v>1587905.31850145</v>
       </c>
       <c r="H90" s="1" t="n">
-        <v>1579682.71713346</v>
+        <v>1586656.08850799</v>
       </c>
       <c r="I90" s="1" t="n">
         <v>1</v>
@@ -5955,25 +5955,25 @@
         <v>9</v>
       </c>
       <c r="B91" s="1" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D91" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E91" s="1" t="n">
-        <v>424.014245033264</v>
+        <v>230.84326004982</v>
       </c>
       <c r="F91" s="1" t="n">
-        <v>1582940.04258216</v>
+        <v>1581848.37099783</v>
       </c>
       <c r="G91" s="1" t="n">
-        <v>1580841.65534026</v>
+        <v>1587507.44830262</v>
       </c>
       <c r="H91" s="1" t="n">
-        <v>1579981.65704757</v>
+        <v>1585967.33547351</v>
       </c>
       <c r="I91" s="1" t="n">
         <v>1</v>
@@ -5987,22 +5987,22 @@
         <v>100</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D92" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E92" s="1" t="n">
-        <v>495.795315027237</v>
+        <v>405.549264907837</v>
       </c>
       <c r="F92" s="1" t="n">
-        <v>1583562.39251531</v>
+        <v>1583814.53468316</v>
       </c>
       <c r="G92" s="1" t="n">
-        <v>1581517.44706293</v>
+        <v>1586895.65448005</v>
       </c>
       <c r="H92" s="1" t="n">
-        <v>1580127.39796164</v>
+        <v>1585468.87420321</v>
       </c>
       <c r="I92" s="1" t="n">
         <v>1</v>
@@ -6016,22 +6016,22 @@
         <v>100</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E93" s="1" t="n">
-        <v>379.546808958054</v>
+        <v>338.198935985565</v>
       </c>
       <c r="F93" s="1" t="n">
-        <v>1583026.97584059</v>
+        <v>1581889.08715147</v>
       </c>
       <c r="G93" s="1" t="n">
-        <v>1582008.86322966</v>
+        <v>1586067.6730276</v>
       </c>
       <c r="H93" s="1" t="n">
-        <v>1581047.18206249</v>
+        <v>1585177.84624148</v>
       </c>
       <c r="I93" s="1" t="n">
         <v>1</v>
@@ -6045,22 +6045,22 @@
         <v>100</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E94" s="1" t="n">
-        <v>344.870808124542</v>
+        <v>269.108856916428</v>
       </c>
       <c r="F94" s="1" t="n">
-        <v>1582939.17081523</v>
+        <v>1581756.28005303</v>
       </c>
       <c r="G94" s="1" t="n">
-        <v>1581184.77527594</v>
+        <v>1586107.8574203</v>
       </c>
       <c r="H94" s="1" t="n">
-        <v>1580289.08804937</v>
+        <v>1585131.73288468</v>
       </c>
       <c r="I94" s="1" t="n">
         <v>1</v>
@@ -6074,22 +6074,22 @@
         <v>100</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E95" s="1" t="n">
-        <v>351.722609996796</v>
+        <v>433.007182121277</v>
       </c>
       <c r="F95" s="1" t="n">
-        <v>1582987.02431759</v>
+        <v>1582321.59696527</v>
       </c>
       <c r="G95" s="1" t="n">
-        <v>1583493.82852356</v>
+        <v>1588575.82972396</v>
       </c>
       <c r="H95" s="1" t="n">
-        <v>1582108.5041646</v>
+        <v>1587002.88660421</v>
       </c>
       <c r="I95" s="1" t="n">
         <v>1</v>
@@ -6103,22 +6103,22 @@
         <v>100</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D96" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E96" s="1" t="n">
-        <v>350.567046880722</v>
+        <v>366.620675086975</v>
       </c>
       <c r="F96" s="1" t="n">
-        <v>1583154.15440368</v>
+        <v>1582139.82272297</v>
       </c>
       <c r="G96" s="1" t="n">
-        <v>1581506.75566261</v>
+        <v>1586991.72295443</v>
       </c>
       <c r="H96" s="1" t="n">
-        <v>1580080.70429945</v>
+        <v>1585505.10071106</v>
       </c>
       <c r="I96" s="1" t="n">
         <v>1</v>
@@ -6132,22 +6132,22 @@
         <v>100</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D97" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E97" s="1" t="n">
-        <v>492.359508037567</v>
+        <v>226.820858001709</v>
       </c>
       <c r="F97" s="1" t="n">
-        <v>1583766.08936682</v>
+        <v>1581923.16338518</v>
       </c>
       <c r="G97" s="1" t="n">
-        <v>1580931.06398738</v>
+        <v>1583947.34977944</v>
       </c>
       <c r="H97" s="1" t="n">
-        <v>1579473.97529085</v>
+        <v>1582508.25097506</v>
       </c>
       <c r="I97" s="1" t="n">
         <v>1</v>
@@ -6161,22 +6161,22 @@
         <v>100</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D98" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E98" s="1" t="n">
-        <v>399.624781131744</v>
+        <v>395.254674911499</v>
       </c>
       <c r="F98" s="1" t="n">
-        <v>1583866.62330897</v>
+        <v>1582655.54835917</v>
       </c>
       <c r="G98" s="1" t="n">
-        <v>1580654.79209317</v>
+        <v>1586888.12732615</v>
       </c>
       <c r="H98" s="1" t="n">
-        <v>1579190.73812872</v>
+        <v>1585367.8075639</v>
       </c>
       <c r="I98" s="1" t="n">
         <v>1</v>
@@ -6190,22 +6190,22 @@
         <v>100</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D99" s="1" t="n">
         <v>0.8</v>
       </c>
       <c r="E99" s="1" t="n">
-        <v>392.375791072845</v>
+        <v>211.785351991653</v>
       </c>
       <c r="F99" s="1" t="n">
-        <v>1582847.43418944</v>
+        <v>1583570.52746167</v>
       </c>
       <c r="G99" s="1" t="n">
-        <v>1580418.89764553</v>
+        <v>1585273.61219495</v>
       </c>
       <c r="H99" s="1" t="n">
-        <v>1579202.60291455</v>
+        <v>1583775.33334206</v>
       </c>
       <c r="I99" s="1" t="n">
         <v>1</v>
@@ -6219,27 +6219,156 @@
         <v>100</v>
       </c>
       <c r="C100" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D100" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E100" s="1" t="n">
+        <v>234.415601015091</v>
+      </c>
+      <c r="F100" s="1" t="n">
+        <v>1582334.51481472</v>
+      </c>
+      <c r="G100" s="1" t="n">
+        <v>1587995.33157836</v>
+      </c>
+      <c r="H100" s="1" t="n">
+        <v>1586452.4641864</v>
+      </c>
+      <c r="I100" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="C101" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D100" s="1" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E100" s="1" t="n">
-        <v>382.177648067474</v>
-      </c>
-      <c r="F100" s="1" t="n">
-        <v>1582482.46017784</v>
-      </c>
-      <c r="G100" s="1" t="n">
-        <v>1581219.9284448</v>
-      </c>
-      <c r="H100" s="1" t="n">
-        <v>1579937.63301996</v>
-      </c>
-      <c r="I100" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="D101" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E101" s="1" t="n">
+        <v>228.44136595726</v>
+      </c>
+      <c r="F101" s="1" t="n">
+        <v>1582079.96089071</v>
+      </c>
+      <c r="G101" s="1" t="n">
+        <v>1587228.55413334</v>
+      </c>
+      <c r="H101" s="1" t="n">
+        <v>1585950.80495894</v>
+      </c>
+      <c r="I101" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -6256,10 +6385,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G46" activeCellId="0" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6307,16 +6436,16 @@
         <v>0.9</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>89.8644549846649</v>
+        <v>68.2056090831757</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>1615204.61657288</v>
+        <v>1594650.36085776</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1576090.32120083</v>
+        <v>1582163.00855187</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>1574705.35145377</v>
+        <v>1581252.3119944</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>1</v>
@@ -6336,16 +6465,16 @@
         <v>0.9</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>42.6228098869324</v>
+        <v>61.1419041156769</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1604110.96304623</v>
+        <v>1619123.17001294</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>1576836.5812906</v>
+        <v>1577267.07541866</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>1575440.81167403</v>
+        <v>1576277.66403985</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>1</v>
@@ -6365,16 +6494,16 @@
         <v>0.9</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>41.801362991333</v>
+        <v>48.3377480506897</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>1615067.18572005</v>
+        <v>1610216.43215588</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>1574721.1780771</v>
+        <v>1581786.20288828</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>1573412.15236179</v>
+        <v>1580799.45978652</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>1</v>
@@ -6394,16 +6523,16 @@
         <v>0.9</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>75.973659992218</v>
+        <v>61.1979939937592</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1609995.00883784</v>
+        <v>1599457.47574158</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>1576809.57587101</v>
+        <v>1579980.59223598</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>1575927.53627576</v>
+        <v>1579387.56428638</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>1</v>
@@ -6423,16 +6552,16 @@
         <v>0.9</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>54.6012990474701</v>
+        <v>40.2794830799103</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>1597448.45254223</v>
+        <v>1607115.17703007</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>1579434.14784791</v>
+        <v>1582009.26000108</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>1578493.04673608</v>
+        <v>1580444.11749369</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>1</v>
@@ -6452,16 +6581,16 @@
         <v>0.9</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>41.8663408756256</v>
+        <v>52.8145530223847</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>1601369.17605902</v>
+        <v>1595589.31164583</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>1579331.30145729</v>
+        <v>1579999.60489016</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>1577757.55759405</v>
+        <v>1578448.50555367</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>1</v>
@@ -6481,16 +6610,16 @@
         <v>0.9</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>48.5917129516602</v>
+        <v>27.7323689460754</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>1605662.77574922</v>
+        <v>1611698.19009699</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>1576636.54466658</v>
+        <v>1578061.27410957</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>1575272.64948922</v>
+        <v>1576596.56913255</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>1</v>
@@ -6510,16 +6639,16 @@
         <v>0.9</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>38.8009929656982</v>
+        <v>75.3636689186096</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>1597190.39864881</v>
+        <v>1603875.97135881</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>1579386.34082234</v>
+        <v>1578760.72367804</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>1578480.9911129</v>
+        <v>1577303.79721082</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>1</v>
@@ -6539,16 +6668,16 @@
         <v>0.9</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>53.5113530158997</v>
+        <v>79.8340890407562</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>1613543.68359472</v>
+        <v>1629800.86441105</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>1577870.23855754</v>
+        <v>1580742.30963656</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>1576591.66072077</v>
+        <v>1579182.09609251</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>1</v>
@@ -6568,16 +6697,16 @@
         <v>0.9</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>65.2681920528412</v>
+        <v>60.7061908245087</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>1594849.19332617</v>
+        <v>1602551.67083565</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>1579821.14176375</v>
+        <v>1582409.41455026</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>1578246.39045055</v>
+        <v>1580829.64993775</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>1</v>
@@ -6597,16 +6726,16 @@
         <v>0.9</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>229.76046204567</v>
+        <v>73.2997410297394</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>1592528.92587556</v>
+        <v>1590748.08117526</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>1578370.41476526</v>
+        <v>1585506.51344312</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>1576810.27431058</v>
+        <v>1584049.86403599</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>1</v>
@@ -6626,16 +6755,16 @@
         <v>0.9</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>237.878801107407</v>
+        <v>70.3217611312866</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>1593601.83661235</v>
+        <v>1590847.73526352</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>1577970.95168461</v>
+        <v>1580439.00704903</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>1576686.5117642</v>
+        <v>1579512.05941248</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>1</v>
@@ -6655,16 +6784,16 @@
         <v>0.9</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>58.596873998642</v>
+        <v>80.4151709079742</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>1590829.43188491</v>
+        <v>1592379.00680835</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>1579209.79071921</v>
+        <v>1582541.42918994</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>1578130.40547494</v>
+        <v>1581782.11501808</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>1</v>
@@ -6684,16 +6813,16 @@
         <v>0.9</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>94.9432590007782</v>
+        <v>68.4107241630554</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>1592061.00587668</v>
+        <v>1586891.40338021</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>1578113.76968512</v>
+        <v>1582082.24790723</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>1576671.43526292</v>
+        <v>1580812.99771995</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>1</v>
@@ -6713,16 +6842,16 @@
         <v>0.9</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>109.869606971741</v>
+        <v>51.6791291236877</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>1586049.84934922</v>
+        <v>1589978.82766839</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>1580478.45763501</v>
+        <v>1586304.78251779</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>1579176.09376314</v>
+        <v>1585165.75531182</v>
       </c>
       <c r="I16" s="1" t="n">
         <v>1</v>
@@ -6742,16 +6871,16 @@
         <v>0.9</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>223.299607992172</v>
+        <v>107.805460929871</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>1594652.73207197</v>
+        <v>1588287.90974422</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>1578816.47295997</v>
+        <v>1581482.02803102</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>1577277.10175167</v>
+        <v>1580056.67974279</v>
       </c>
       <c r="I17" s="1" t="n">
         <v>1</v>
@@ -6771,16 +6900,16 @@
         <v>0.9</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>206.028931856155</v>
+        <v>91.664370059967</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>1591356.42553041</v>
+        <v>1595495.73677307</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>1578956.41287648</v>
+        <v>1584275.73301708</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>1577386.77056337</v>
+        <v>1582846.75860635</v>
       </c>
       <c r="I18" s="1" t="n">
         <v>1</v>
@@ -6800,16 +6929,16 @@
         <v>0.9</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>94.8289489746094</v>
+        <v>175.752810001373</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>1590513.90589115</v>
+        <v>1595097.06254523</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>1579696.0639342</v>
+        <v>1581234.2652856</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>1578190.11110185</v>
+        <v>1579680.66177493</v>
       </c>
       <c r="I19" s="1" t="n">
         <v>1</v>
@@ -6829,16 +6958,16 @@
         <v>0.9</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>143.627845048904</v>
+        <v>92.9363989830017</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>1597395.99638679</v>
+        <v>1591011.72884919</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>1578962.60985133</v>
+        <v>1582940.70224117</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>1577923.06338296</v>
+        <v>1581476.18430598</v>
       </c>
       <c r="I20" s="1" t="n">
         <v>1</v>
@@ -6858,16 +6987,16 @@
         <v>0.9</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>67.8070931434631</v>
+        <v>77.5492150783539</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>1587138.24804852</v>
+        <v>1597340.00192013</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>1578772.59581673</v>
+        <v>1583810.81479841</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>1577655.03034596</v>
+        <v>1582549.98698499</v>
       </c>
       <c r="I21" s="1" t="n">
         <v>1</v>
@@ -6887,16 +7016,16 @@
         <v>0.9</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>123.329546928406</v>
+        <v>112.438814163208</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>1586127.3578897</v>
+        <v>1586803.91845363</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>1579523.16292701</v>
+        <v>1585139.3987394</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>1577999.64307446</v>
+        <v>1584358.98494558</v>
       </c>
       <c r="I22" s="1" t="n">
         <v>1</v>
@@ -6916,16 +7045,16 @@
         <v>0.9</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>272.299494028091</v>
+        <v>113.442192077637</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>1590223.68056832</v>
+        <v>1591902.65147676</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>1579156.93502319</v>
+        <v>1582464.80006966</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>1577669.27752</v>
+        <v>1581195.05242857</v>
       </c>
       <c r="I23" s="1" t="n">
         <v>1</v>
@@ -6945,16 +7074,16 @@
         <v>0.9</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>166.635700941086</v>
+        <v>97.2634589672089</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>1587326.65688283</v>
+        <v>1588564.70396822</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>1579534.25234212</v>
+        <v>1583517.94868609</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>1578060.7432394</v>
+        <v>1582390.72226552</v>
       </c>
       <c r="I24" s="1" t="n">
         <v>1</v>
@@ -6974,16 +7103,16 @@
         <v>0.9</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>481.640820026398</v>
+        <v>83.4271171092987</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>1586023.87030104</v>
+        <v>1585235.33773299</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>1579843.15743016</v>
+        <v>1587129.79098965</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>1578600.71692264</v>
+        <v>1585807.35689635</v>
       </c>
       <c r="I25" s="1" t="n">
         <v>1</v>
@@ -7003,16 +7132,16 @@
         <v>0.9</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>150.36744594574</v>
+        <v>102.452656984329</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>1585830.30951774</v>
+        <v>1587630.90825683</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>1581594.86691077</v>
+        <v>1586557.03096384</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>1580237.80484287</v>
+        <v>1585061.44373728</v>
       </c>
       <c r="I26" s="1" t="n">
         <v>1</v>
@@ -7032,16 +7161,16 @@
         <v>0.9</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>149.004920959473</v>
+        <v>118.737200975418</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>1590967.6102733</v>
+        <v>1585415.10322946</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>1578823.00476994</v>
+        <v>1583249.57659381</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>1577247.39380246</v>
+        <v>1582153.66285652</v>
       </c>
       <c r="I27" s="1" t="n">
         <v>1</v>
@@ -7061,16 +7190,16 @@
         <v>0.9</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>134.399022817612</v>
+        <v>183.949194908142</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>1591034.44722249</v>
+        <v>1588339.57756092</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>1580108.51674914</v>
+        <v>1583860.56258791</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>1578624.21741792</v>
+        <v>1582329.0256279</v>
       </c>
       <c r="I28" s="1" t="n">
         <v>1</v>
@@ -7090,16 +7219,16 @@
         <v>0.9</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>165.104480028152</v>
+        <v>95.5076699256897</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>1589468.77222243</v>
+        <v>1589733.24461012</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>1580095.43390819</v>
+        <v>1583173.95950085</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>1578743.43006477</v>
+        <v>1582334.51205167</v>
       </c>
       <c r="I29" s="1" t="n">
         <v>1</v>
@@ -7119,16 +7248,16 @@
         <v>0.9</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>123.964406967163</v>
+        <v>425.20813703537</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>1590832.49588809</v>
+        <v>1587443.11049791</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>1579588.44655575</v>
+        <v>1583397.89327915</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>1578288.03612147</v>
+        <v>1581818.44235554</v>
       </c>
       <c r="I30" s="1" t="n">
         <v>1</v>
@@ -7148,16 +7277,16 @@
         <v>0.9</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>131.55501294136</v>
+        <v>382.259381055832</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>1585665.83775804</v>
+        <v>1590742.97415454</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>1578246.2916504</v>
+        <v>1583398.15491474</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>1576942.85859808</v>
+        <v>1581930.88411042</v>
       </c>
       <c r="I31" s="1" t="n">
         <v>1</v>
@@ -7177,16 +7306,16 @@
         <v>0.9</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>187.744462013245</v>
+        <v>135.412073135376</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>1583698.11117236</v>
+        <v>1586478.67598992</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>1579968.9034015</v>
+        <v>1586369.78230155</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>1579034.47391515</v>
+        <v>1584992.41644386</v>
       </c>
       <c r="I32" s="1" t="n">
         <v>1</v>
@@ -7206,16 +7335,16 @@
         <v>0.9</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>121.215884923935</v>
+        <v>107.680917978287</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>1587344.69822867</v>
+        <v>1585588.34951415</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>1580266.6132731</v>
+        <v>1583819.01367558</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>1578743.85156083</v>
+        <v>1582841.0022104</v>
       </c>
       <c r="I33" s="1" t="n">
         <v>1</v>
@@ -7235,16 +7364,16 @@
         <v>0.9</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>166.921765089035</v>
+        <v>165.065490961075</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>1585279.57159868</v>
+        <v>1586911.93854786</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>1580663.19623461</v>
+        <v>1583532.69730924</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>1579235.61389111</v>
+        <v>1582159.53260988</v>
       </c>
       <c r="I34" s="1" t="n">
         <v>1</v>
@@ -7264,16 +7393,16 @@
         <v>0.9</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>480.750014066696</v>
+        <v>166.257513046265</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>1585118.10139933</v>
+        <v>1584294.53526086</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>1580090.33634227</v>
+        <v>1586462.84068066</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>1578867.74381721</v>
+        <v>1585573.56704018</v>
       </c>
       <c r="I35" s="1" t="n">
         <v>1</v>
@@ -7287,22 +7416,22 @@
         <v>40</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>539.263910055161</v>
+        <v>255.656064033508</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>1583649.59721977</v>
+        <v>1585398.41824713</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>1580951.78473747</v>
+        <v>1583107.70461763</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>1580326.01259817</v>
+        <v>1581642.98422932</v>
       </c>
       <c r="I36" s="1" t="n">
         <v>1</v>
@@ -7316,22 +7445,22 @@
         <v>40</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>362.124590873718</v>
+        <v>211.660794973373</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>1587421.09915351</v>
+        <v>1587535.38202606</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>1579346.11575092</v>
+        <v>1584665.12957906</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>1577864.2441671</v>
+        <v>1583176.20196972</v>
       </c>
       <c r="I37" s="1" t="n">
         <v>1</v>
@@ -7345,22 +7474,22 @@
         <v>40</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>166.9626288414</v>
+        <v>126.22207403183</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>1585634.54169343</v>
+        <v>1588575.82002038</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>1579669.19839618</v>
+        <v>1583313.83238079</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>1578797.17776534</v>
+        <v>1582354.35880055</v>
       </c>
       <c r="I38" s="1" t="n">
         <v>1</v>
@@ -7374,22 +7503,22 @@
         <v>40</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>136.967534065247</v>
+        <v>328.657564163208</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>1587338.79464395</v>
+        <v>1587605.57733679</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>1579678.77186421</v>
+        <v>1583164.63689973</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>1578331.2852941</v>
+        <v>1581752.18293102</v>
       </c>
       <c r="I39" s="1" t="n">
         <v>1</v>
@@ -7403,22 +7532,22 @@
         <v>40</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>184.746543169022</v>
+        <v>128.028554916382</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>1587968.04091693</v>
+        <v>1586799.62820812</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>1578869.16640619</v>
+        <v>1584154.73464722</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>1577397.59513609</v>
+        <v>1583082.50165187</v>
       </c>
       <c r="I40" s="1" t="n">
         <v>1</v>
@@ -7429,25 +7558,25 @@
         <v>9</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>186.421921014786</v>
+        <v>123.489966154099</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>1583971.07381595</v>
+        <v>1584242.98306745</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>1578906.13797281</v>
+        <v>1587219.00470676</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>1577547.68137048</v>
+        <v>1586219.4584039</v>
       </c>
       <c r="I41" s="1" t="n">
         <v>1</v>
@@ -7461,22 +7590,22 @@
         <v>50</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>125.017354011536</v>
+        <v>124.490921974182</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>1584442.9100743</v>
+        <v>1586158.93558271</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>1580972.29621801</v>
+        <v>1584755.25886761</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>1579532.13301691</v>
+        <v>1583227.57692771</v>
       </c>
       <c r="I42" s="1" t="n">
         <v>1</v>
@@ -7490,22 +7619,22 @@
         <v>50</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>136.449575901031</v>
+        <v>183.711986064911</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>1584366.75016407</v>
+        <v>1584889.50929905</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>1580792.79696952</v>
+        <v>1585349.53156494</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>1579273.77717228</v>
+        <v>1584016.70235968</v>
       </c>
       <c r="I43" s="1" t="n">
         <v>1</v>
@@ -7519,22 +7648,22 @@
         <v>50</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>183.555198907852</v>
+        <v>131.431000947952</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>1583412.78403041</v>
+        <v>1583927.61113068</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>1580748.82776056</v>
+        <v>1586608.30864146</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>1579335.70838128</v>
+        <v>1585578.66863769</v>
       </c>
       <c r="I44" s="1" t="n">
         <v>1</v>
@@ -7548,22 +7677,22 @@
         <v>50</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>222.235326051712</v>
+        <v>188.052839040756</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>1584247.31964496</v>
+        <v>1583642.68438544</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>1580934.64069853</v>
+        <v>1587998.24425381</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>1579777.50300469</v>
+        <v>1586426.27479453</v>
       </c>
       <c r="I45" s="1" t="n">
         <v>1</v>
@@ -7577,22 +7706,22 @@
         <v>50</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>195.747053146362</v>
+        <v>104.839350938797</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>1582719.88063219</v>
+        <v>1582866.00080162</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>1581320.47918965</v>
+        <v>1583007.9932234</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>1579754.45655705</v>
+        <v>1581895.92102926</v>
       </c>
       <c r="I46" s="1" t="n">
         <v>1</v>
@@ -7606,22 +7735,22 @@
         <v>50</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D47" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>222.783059835434</v>
+        <v>503.426270961761</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>1584795.06512361</v>
+        <v>1587495.70415594</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>1580664.26491258</v>
+        <v>1584328.74055532</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>1579173.29211315</v>
+        <v>1582746.07153685</v>
       </c>
       <c r="I47" s="1" t="n">
         <v>1</v>
@@ -7635,22 +7764,22 @@
         <v>50</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D48" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>337.533492803574</v>
+        <v>166.898823022842</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>1585344.35384772</v>
+        <v>1584149.94383825</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>1580666.13227839</v>
+        <v>1583464.48863062</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>1579098.66081114</v>
+        <v>1582622.08100602</v>
       </c>
       <c r="I48" s="1" t="n">
         <v>1</v>
@@ -7664,22 +7793,22 @@
         <v>50</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>194.131207942963</v>
+        <v>139.397930145264</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>1585869.17837263</v>
+        <v>1584467.51206996</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>1579106.49338041</v>
+        <v>1587020.17678061</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>1578242.96050754</v>
+        <v>1585810.38185137</v>
       </c>
       <c r="I49" s="1" t="n">
         <v>1</v>
@@ -7693,22 +7822,22 @@
         <v>50</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>243.859657049179</v>
+        <v>275.947441101074</v>
       </c>
       <c r="F50" s="1" t="n">
-        <v>1587004.39849819</v>
+        <v>1586405.87099266</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>1579420.09708894</v>
+        <v>1585871.49893713</v>
       </c>
       <c r="H50" s="1" t="n">
-        <v>1578214.80990147</v>
+        <v>1584356.38261448</v>
       </c>
       <c r="I50" s="1" t="n">
         <v>1</v>
@@ -7719,25 +7848,25 @@
         <v>9</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D51" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>228.948970794678</v>
+        <v>271.237646102905</v>
       </c>
       <c r="F51" s="1" t="n">
-        <v>1584119.98609976</v>
+        <v>1584913.13633644</v>
       </c>
       <c r="G51" s="1" t="n">
-        <v>1579478.11500635</v>
+        <v>1587068.90090533</v>
       </c>
       <c r="H51" s="1" t="n">
-        <v>1578176.72283766</v>
+        <v>1585648.85021794</v>
       </c>
       <c r="I51" s="1" t="n">
         <v>1</v>
@@ -7751,22 +7880,22 @@
         <v>60</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>196.658876895905</v>
+        <v>173.113783836365</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>1583500.52418236</v>
+        <v>1583555.23696206</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>1580650.89723774</v>
+        <v>1585567.41004716</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>1579415.60458395</v>
+        <v>1584066.0585633</v>
       </c>
       <c r="I52" s="1" t="n">
         <v>1</v>
@@ -7780,22 +7909,22 @@
         <v>60</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>242.674549102783</v>
+        <v>173.974787950516</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>1585690.4234487</v>
+        <v>1583963.11292975</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>1581091.16049183</v>
+        <v>1585449.05837815</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>1579523.90348117</v>
+        <v>1584124.23264477</v>
       </c>
       <c r="I53" s="1" t="n">
         <v>1</v>
@@ -7809,22 +7938,22 @@
         <v>60</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>279.903409957886</v>
+        <v>127.247627019882</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>1583891.26838785</v>
+        <v>1583321.39148727</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>1581739.2524243</v>
+        <v>1586361.11034587</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>1580507.25559531</v>
+        <v>1585311.7618124</v>
       </c>
       <c r="I54" s="1" t="n">
         <v>1</v>
@@ -7838,22 +7967,22 @@
         <v>60</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>185.196889162064</v>
+        <v>287.682093858719</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>1583895.12657169</v>
+        <v>1583103.09027117</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>1581069.90297645</v>
+        <v>1587514.40653847</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>1580001.89697632</v>
+        <v>1585955.60753947</v>
       </c>
       <c r="I55" s="1" t="n">
         <v>1</v>
@@ -7867,22 +7996,22 @@
         <v>60</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D56" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>244.935929775238</v>
+        <v>252.947484970093</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>1582682.92251959</v>
+        <v>1582580.50784757</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>1581549.35070051</v>
+        <v>1583838.63310769</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>1580667.31107361</v>
+        <v>1582268.66566754</v>
       </c>
       <c r="I56" s="1" t="n">
         <v>1</v>
@@ -7896,22 +8025,22 @@
         <v>60</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D57" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>308.908183097839</v>
+        <v>200.108515977859</v>
       </c>
       <c r="F57" s="1" t="n">
-        <v>1583941.6645752</v>
+        <v>1582616.2162082</v>
       </c>
       <c r="G57" s="1" t="n">
-        <v>1580820.99348774</v>
+        <v>1585002.93526779</v>
       </c>
       <c r="H57" s="1" t="n">
-        <v>1579509.6711922</v>
+        <v>1583577.10947819</v>
       </c>
       <c r="I57" s="1" t="n">
         <v>1</v>
@@ -7925,22 +8054,22 @@
         <v>60</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D58" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>380.486722946167</v>
+        <v>146.642666101456</v>
       </c>
       <c r="F58" s="1" t="n">
-        <v>1583690.77752165</v>
+        <v>1583475.94288651</v>
       </c>
       <c r="G58" s="1" t="n">
-        <v>1581462.79733136</v>
+        <v>1587084.80938227</v>
       </c>
       <c r="H58" s="1" t="n">
-        <v>1579981.26849811</v>
+        <v>1585596.612197</v>
       </c>
       <c r="I58" s="1" t="n">
         <v>1</v>
@@ -7954,22 +8083,22 @@
         <v>60</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D59" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>291.380379915237</v>
+        <v>282.776575088501</v>
       </c>
       <c r="F59" s="1" t="n">
-        <v>1584992.51747054</v>
+        <v>1583874.77019534</v>
       </c>
       <c r="G59" s="1" t="n">
-        <v>1579387.97311836</v>
+        <v>1585305.33224276</v>
       </c>
       <c r="H59" s="1" t="n">
-        <v>1577961.12067531</v>
+        <v>1584257.78616886</v>
       </c>
       <c r="I59" s="1" t="n">
         <v>1</v>
@@ -7980,25 +8109,25 @@
         <v>9</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D60" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>248.716445922852</v>
+        <v>280.453039884567</v>
       </c>
       <c r="F60" s="1" t="n">
-        <v>1585052.02336838</v>
+        <v>1583696.61798791</v>
       </c>
       <c r="G60" s="1" t="n">
-        <v>1579806.1848031</v>
+        <v>1586918.22185828</v>
       </c>
       <c r="H60" s="1" t="n">
-        <v>1578263.11649599</v>
+        <v>1585579.16507224</v>
       </c>
       <c r="I60" s="1" t="n">
         <v>1</v>
@@ -8009,25 +8138,25 @@
         <v>9</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D61" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>204.308500051498</v>
+        <v>165.068744897842</v>
       </c>
       <c r="F61" s="1" t="n">
-        <v>1583759.92092727</v>
+        <v>1582732.21718686</v>
       </c>
       <c r="G61" s="1" t="n">
-        <v>1579628.97136334</v>
+        <v>1585289.00245297</v>
       </c>
       <c r="H61" s="1" t="n">
-        <v>1578892.27477377</v>
+        <v>1584049.7803611</v>
       </c>
       <c r="I61" s="1" t="n">
         <v>1</v>
@@ -8041,22 +8170,22 @@
         <v>70</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D62" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>260.286736965179</v>
+        <v>234.881217956543</v>
       </c>
       <c r="F62" s="1" t="n">
-        <v>1583835.85777752</v>
+        <v>1583312.14774911</v>
       </c>
       <c r="G62" s="1" t="n">
-        <v>1580430.53179213</v>
+        <v>1585836.01947851</v>
       </c>
       <c r="H62" s="1" t="n">
-        <v>1579515.31900594</v>
+        <v>1584350.94341671</v>
       </c>
       <c r="I62" s="1" t="n">
         <v>1</v>
@@ -8070,22 +8199,22 @@
         <v>70</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>249.820506095886</v>
+        <v>174.886072158813</v>
       </c>
       <c r="F63" s="1" t="n">
-        <v>1584348.53402022</v>
+        <v>1583967.57378407</v>
       </c>
       <c r="G63" s="1" t="n">
-        <v>1580264.16062046</v>
+        <v>1586759.23542014</v>
       </c>
       <c r="H63" s="1" t="n">
-        <v>1579577.00193374</v>
+        <v>1585309.01255459</v>
       </c>
       <c r="I63" s="1" t="n">
         <v>1</v>
@@ -8099,22 +8228,22 @@
         <v>70</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>171.969417095184</v>
+        <v>240.551728010178</v>
       </c>
       <c r="F64" s="1" t="n">
-        <v>1583726.50609681</v>
+        <v>1582717.92999836</v>
       </c>
       <c r="G64" s="1" t="n">
-        <v>1582060.84154031</v>
+        <v>1587255.37947002</v>
       </c>
       <c r="H64" s="1" t="n">
-        <v>1580687.57991837</v>
+        <v>1585673.17002102</v>
       </c>
       <c r="I64" s="1" t="n">
         <v>1</v>
@@ -8128,22 +8257,22 @@
         <v>70</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D65" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>294.731554985046</v>
+        <v>291.812842130661</v>
       </c>
       <c r="F65" s="1" t="n">
-        <v>1583717.82957678</v>
+        <v>1583165.14723409</v>
       </c>
       <c r="G65" s="1" t="n">
-        <v>1580993.11289804</v>
+        <v>1583851.19756445</v>
       </c>
       <c r="H65" s="1" t="n">
-        <v>1580005.93071606</v>
+        <v>1582278.1700409</v>
       </c>
       <c r="I65" s="1" t="n">
         <v>1</v>
@@ -8157,22 +8286,22 @@
         <v>70</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D66" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>298.363037824631</v>
+        <v>315.0395860672</v>
       </c>
       <c r="F66" s="1" t="n">
-        <v>1583319.72519205</v>
+        <v>1583048.73945003</v>
       </c>
       <c r="G66" s="1" t="n">
-        <v>1583052.68128767</v>
+        <v>1586714.98280641</v>
       </c>
       <c r="H66" s="1" t="n">
-        <v>1581744.41608532</v>
+        <v>1585299.34463754</v>
       </c>
       <c r="I66" s="1" t="n">
         <v>1</v>
@@ -8186,22 +8315,22 @@
         <v>70</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D67" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>292.515216827393</v>
+        <v>245.357766866684</v>
       </c>
       <c r="F67" s="1" t="n">
-        <v>1584138.00268601</v>
+        <v>1584170.0301123</v>
       </c>
       <c r="G67" s="1" t="n">
-        <v>1581448.09190877</v>
+        <v>1585021.46624501</v>
       </c>
       <c r="H67" s="1" t="n">
-        <v>1579932.31584711</v>
+        <v>1583572.98424274</v>
       </c>
       <c r="I67" s="1" t="n">
         <v>1</v>
@@ -8215,22 +8344,22 @@
         <v>70</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D68" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>228.571455001831</v>
+        <v>171.027321100235</v>
       </c>
       <c r="F68" s="1" t="n">
-        <v>1583469.53251825</v>
+        <v>1583569.05598679</v>
       </c>
       <c r="G68" s="1" t="n">
-        <v>1581314.26281254</v>
+        <v>1587632.78549759</v>
       </c>
       <c r="H68" s="1" t="n">
-        <v>1579782.89839007</v>
+        <v>1586106.90576236</v>
       </c>
       <c r="I68" s="1" t="n">
         <v>1</v>
@@ -8244,22 +8373,22 @@
         <v>70</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D69" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>250.60780787468</v>
+        <v>214.219573974609</v>
       </c>
       <c r="F69" s="1" t="n">
-        <v>1584598.51720334</v>
+        <v>1583655.07718093</v>
       </c>
       <c r="G69" s="1" t="n">
-        <v>1580338.99425907</v>
+        <v>1585633.90343318</v>
       </c>
       <c r="H69" s="1" t="n">
-        <v>1578922.33927809</v>
+        <v>1584211.8767689</v>
       </c>
       <c r="I69" s="1" t="n">
         <v>1</v>
@@ -8270,25 +8399,25 @@
         <v>9</v>
       </c>
       <c r="B70" s="1" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D70" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>348.644505023956</v>
+        <v>522.925122976303</v>
       </c>
       <c r="F70" s="1" t="n">
-        <v>1585448.38490283</v>
+        <v>1583882.30069907</v>
       </c>
       <c r="G70" s="1" t="n">
-        <v>1580242.22868029</v>
+        <v>1586892.02092694</v>
       </c>
       <c r="H70" s="1" t="n">
-        <v>1578676.67931193</v>
+        <v>1585332.87662153</v>
       </c>
       <c r="I70" s="1" t="n">
         <v>1</v>
@@ -8299,25 +8428,25 @@
         <v>9</v>
       </c>
       <c r="B71" s="1" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D71" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>266.703135967255</v>
+        <v>248.9585750103</v>
       </c>
       <c r="F71" s="1" t="n">
-        <v>1582473.74962637</v>
+        <v>1582987.68071203</v>
       </c>
       <c r="G71" s="1" t="n">
-        <v>1580648.71617529</v>
+        <v>1585743.6206255</v>
       </c>
       <c r="H71" s="1" t="n">
-        <v>1579340.79803322</v>
+        <v>1584282.81969722</v>
       </c>
       <c r="I71" s="1" t="n">
         <v>1</v>
@@ -8331,22 +8460,22 @@
         <v>80</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D72" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>298.517361164093</v>
+        <v>267.621412992477</v>
       </c>
       <c r="F72" s="1" t="n">
-        <v>1583013.02570128</v>
+        <v>1583070.34469567</v>
       </c>
       <c r="G72" s="1" t="n">
-        <v>1581165.89769496</v>
+        <v>1586394.60010173</v>
       </c>
       <c r="H72" s="1" t="n">
-        <v>1579794.29036758</v>
+        <v>1584809.90257421</v>
       </c>
       <c r="I72" s="1" t="n">
         <v>1</v>
@@ -8360,22 +8489,22 @@
         <v>80</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>184.352164983749</v>
+        <v>249.793493032455</v>
       </c>
       <c r="F73" s="1" t="n">
-        <v>1583180.43051857</v>
+        <v>1583399.30237456</v>
       </c>
       <c r="G73" s="1" t="n">
-        <v>1580556.01468464</v>
+        <v>1588436.11803267</v>
       </c>
       <c r="H73" s="1" t="n">
-        <v>1579868.21232258</v>
+        <v>1587154.26808082</v>
       </c>
       <c r="I73" s="1" t="n">
         <v>1</v>
@@ -8389,22 +8518,22 @@
         <v>80</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>432.015591859818</v>
+        <v>170.433640003204</v>
       </c>
       <c r="F74" s="1" t="n">
-        <v>1583506.13961855</v>
+        <v>1582122.37492942</v>
       </c>
       <c r="G74" s="1" t="n">
-        <v>1581901.05382307</v>
+        <v>1586940.46361129</v>
       </c>
       <c r="H74" s="1" t="n">
-        <v>1580422.12986476</v>
+        <v>1585435.06487383</v>
       </c>
       <c r="I74" s="1" t="n">
         <v>1</v>
@@ -8418,22 +8547,22 @@
         <v>80</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D75" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>272.228971004486</v>
+        <v>258.739540100098</v>
       </c>
       <c r="F75" s="1" t="n">
-        <v>1582908.73178047</v>
+        <v>1582795.78015584</v>
       </c>
       <c r="G75" s="1" t="n">
-        <v>1581108.47425977</v>
+        <v>1583664.13321407</v>
       </c>
       <c r="H75" s="1" t="n">
-        <v>1580258.58474228</v>
+        <v>1582451.17856217</v>
       </c>
       <c r="I75" s="1" t="n">
         <v>1</v>
@@ -8447,22 +8576,22 @@
         <v>80</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D76" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>304.268966913223</v>
+        <v>181.866609096527</v>
       </c>
       <c r="F76" s="1" t="n">
-        <v>1582815.44367391</v>
+        <v>1582432.03655895</v>
       </c>
       <c r="G76" s="1" t="n">
-        <v>1583254.90158853</v>
+        <v>1586391.39144186</v>
       </c>
       <c r="H76" s="1" t="n">
-        <v>1582185.2649082</v>
+        <v>1585367.58181384</v>
       </c>
       <c r="I76" s="1" t="n">
         <v>1</v>
@@ -8476,22 +8605,22 @@
         <v>80</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D77" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E77" s="1" t="n">
-        <v>316.088847160339</v>
+        <v>284.399589061737</v>
       </c>
       <c r="F77" s="1" t="n">
-        <v>1583771.21338935</v>
+        <v>1583833.14808862</v>
       </c>
       <c r="G77" s="1" t="n">
-        <v>1581336.76500706</v>
+        <v>1585082.70605132</v>
       </c>
       <c r="H77" s="1" t="n">
-        <v>1579761.38538108</v>
+        <v>1583607.78327247</v>
       </c>
       <c r="I77" s="1" t="n">
         <v>1</v>
@@ -8505,22 +8634,22 @@
         <v>80</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D78" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E78" s="1" t="n">
-        <v>323.801190137863</v>
+        <v>493.5147960186</v>
       </c>
       <c r="F78" s="1" t="n">
-        <v>1583143.31905987</v>
+        <v>1583035.54888148</v>
       </c>
       <c r="G78" s="1" t="n">
-        <v>1580679.83213001</v>
+        <v>1587862.66643925</v>
       </c>
       <c r="H78" s="1" t="n">
-        <v>1579609.13624217</v>
+        <v>1586297.6643093</v>
       </c>
       <c r="I78" s="1" t="n">
         <v>1</v>
@@ -8534,22 +8663,22 @@
         <v>80</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D79" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E79" s="1" t="n">
-        <v>428.402802944183</v>
+        <v>215.48130106926</v>
       </c>
       <c r="F79" s="1" t="n">
-        <v>1584801.31498205</v>
+        <v>1582535.21314138</v>
       </c>
       <c r="G79" s="1" t="n">
-        <v>1579995.22616217</v>
+        <v>1587187.63104411</v>
       </c>
       <c r="H79" s="1" t="n">
-        <v>1578742.6026544</v>
+        <v>1586099.0659468</v>
       </c>
       <c r="I79" s="1" t="n">
         <v>1</v>
@@ -8560,25 +8689,25 @@
         <v>9</v>
       </c>
       <c r="B80" s="1" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D80" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E80" s="1" t="n">
-        <v>292.033963918686</v>
+        <v>291.118687152863</v>
       </c>
       <c r="F80" s="1" t="n">
-        <v>1585123.64366316</v>
+        <v>1583675.00155125</v>
       </c>
       <c r="G80" s="1" t="n">
-        <v>1579952.90762912</v>
+        <v>1586917.60285011</v>
       </c>
       <c r="H80" s="1" t="n">
-        <v>1578945.38359766</v>
+        <v>1585622.94680722</v>
       </c>
       <c r="I80" s="1" t="n">
         <v>1</v>
@@ -8589,25 +8718,25 @@
         <v>9</v>
       </c>
       <c r="B81" s="1" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D81" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E81" s="1" t="n">
-        <v>213.787688016891</v>
+        <v>276.259351015091</v>
       </c>
       <c r="F81" s="1" t="n">
-        <v>1582338.12018826</v>
+        <v>1583106.64343781</v>
       </c>
       <c r="G81" s="1" t="n">
-        <v>1580607.50775833</v>
+        <v>1586432.61221583</v>
       </c>
       <c r="H81" s="1" t="n">
-        <v>1579288.72787434</v>
+        <v>1584880.5778618</v>
       </c>
       <c r="I81" s="1" t="n">
         <v>1</v>
@@ -8621,22 +8750,22 @@
         <v>90</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D82" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E82" s="1" t="n">
-        <v>295.154886960983</v>
+        <v>213.617871999741</v>
       </c>
       <c r="F82" s="1" t="n">
-        <v>1582613.41556393</v>
+        <v>1581874.19269754</v>
       </c>
       <c r="G82" s="1" t="n">
-        <v>1580674.90617437</v>
+        <v>1586050.55338558</v>
       </c>
       <c r="H82" s="1" t="n">
-        <v>1579754.2086622</v>
+        <v>1585329.90219662</v>
       </c>
       <c r="I82" s="1" t="n">
         <v>1</v>
@@ -8650,22 +8779,22 @@
         <v>90</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E83" s="1" t="n">
-        <v>249.259429931641</v>
+        <v>280.340620040894</v>
       </c>
       <c r="F83" s="1" t="n">
-        <v>1582772.3889506</v>
+        <v>1582806.629156</v>
       </c>
       <c r="G83" s="1" t="n">
-        <v>1580846.65617514</v>
+        <v>1588453.55239618</v>
       </c>
       <c r="H83" s="1" t="n">
-        <v>1580080.37257939</v>
+        <v>1587089.6936752</v>
       </c>
       <c r="I83" s="1" t="n">
         <v>1</v>
@@ -8679,22 +8808,22 @@
         <v>90</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E84" s="1" t="n">
-        <v>304.085016965866</v>
+        <v>314.199048042297</v>
       </c>
       <c r="F84" s="1" t="n">
-        <v>1582984.06213918</v>
+        <v>1582380.90053553</v>
       </c>
       <c r="G84" s="1" t="n">
-        <v>1581755.56029677</v>
+        <v>1587355.10477036</v>
       </c>
       <c r="H84" s="1" t="n">
-        <v>1580796.50810962</v>
+        <v>1586217.52590974</v>
       </c>
       <c r="I84" s="1" t="n">
         <v>1</v>
@@ -8708,22 +8837,22 @@
         <v>90</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D85" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E85" s="1" t="n">
-        <v>310.058068990707</v>
+        <v>247.909753084183</v>
       </c>
       <c r="F85" s="1" t="n">
-        <v>1583034.74570253</v>
+        <v>1582862.06526754</v>
       </c>
       <c r="G85" s="1" t="n">
-        <v>1581142.80514514</v>
+        <v>1584336.04508911</v>
       </c>
       <c r="H85" s="1" t="n">
-        <v>1580028.88558855</v>
+        <v>1583058.54062549</v>
       </c>
       <c r="I85" s="1" t="n">
         <v>1</v>
@@ -8737,22 +8866,22 @@
         <v>90</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D86" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E86" s="1" t="n">
-        <v>362.059876918793</v>
+        <v>479.037353038788</v>
       </c>
       <c r="F86" s="1" t="n">
-        <v>1583516.2656895</v>
+        <v>1582433.02532558</v>
       </c>
       <c r="G86" s="1" t="n">
-        <v>1583410.99290388</v>
+        <v>1586545.0127373</v>
       </c>
       <c r="H86" s="1" t="n">
-        <v>1582202.07690195</v>
+        <v>1585229.03560554</v>
       </c>
       <c r="I86" s="1" t="n">
         <v>1</v>
@@ -8766,22 +8895,22 @@
         <v>90</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D87" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E87" s="1" t="n">
-        <v>243.870426177978</v>
+        <v>446.233777046204</v>
       </c>
       <c r="F87" s="1" t="n">
-        <v>1583387.15959439</v>
+        <v>1583487.67257759</v>
       </c>
       <c r="G87" s="1" t="n">
-        <v>1581955.84040674</v>
+        <v>1585115.25645474</v>
       </c>
       <c r="H87" s="1" t="n">
-        <v>1580492.52001239</v>
+        <v>1583599.37239209</v>
       </c>
       <c r="I87" s="1" t="n">
         <v>1</v>
@@ -8795,22 +8924,22 @@
         <v>90</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D88" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E88" s="1" t="n">
-        <v>234.530652046204</v>
+        <v>243.945806026459</v>
       </c>
       <c r="F88" s="1" t="n">
-        <v>1583137.39505134</v>
+        <v>1582310.75523162</v>
       </c>
       <c r="G88" s="1" t="n">
-        <v>1580570.82200969</v>
+        <v>1587291.45646675</v>
       </c>
       <c r="H88" s="1" t="n">
-        <v>1579603.45779346</v>
+        <v>1586456.92095098</v>
       </c>
       <c r="I88" s="1" t="n">
         <v>1</v>
@@ -8824,22 +8953,22 @@
         <v>90</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D89" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E89" s="1" t="n">
-        <v>289.350239038467</v>
+        <v>267.159915208817</v>
       </c>
       <c r="F89" s="1" t="n">
-        <v>1584833.0826607</v>
+        <v>1582599.98047502</v>
       </c>
       <c r="G89" s="1" t="n">
-        <v>1580305.77483824</v>
+        <v>1587184.72194155</v>
       </c>
       <c r="H89" s="1" t="n">
-        <v>1579145.44788019</v>
+        <v>1586158.01871005</v>
       </c>
       <c r="I89" s="1" t="n">
         <v>1</v>
@@ -8850,25 +8979,25 @@
         <v>9</v>
       </c>
       <c r="B90" s="1" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D90" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E90" s="1" t="n">
-        <v>239.99866104126</v>
+        <v>376.753652095795</v>
       </c>
       <c r="F90" s="1" t="n">
-        <v>1583544.27517307</v>
+        <v>1583659.33167618</v>
       </c>
       <c r="G90" s="1" t="n">
-        <v>1580267.11479816</v>
+        <v>1586772.72182816</v>
       </c>
       <c r="H90" s="1" t="n">
-        <v>1579038.4536008</v>
+        <v>1585475.79561506</v>
       </c>
       <c r="I90" s="1" t="n">
         <v>1</v>
@@ -8879,25 +9008,25 @@
         <v>9</v>
       </c>
       <c r="B91" s="1" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D91" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E91" s="1" t="n">
-        <v>285.152676105499</v>
+        <v>276.405062198639</v>
       </c>
       <c r="F91" s="1" t="n">
-        <v>1582825.05561262</v>
+        <v>1582316.34120102</v>
       </c>
       <c r="G91" s="1" t="n">
-        <v>1580566.90690654</v>
+        <v>1586924.74944123</v>
       </c>
       <c r="H91" s="1" t="n">
-        <v>1579728.97592532</v>
+        <v>1585343.27555169</v>
       </c>
       <c r="I91" s="1" t="n">
         <v>1</v>
@@ -8911,22 +9040,22 @@
         <v>100</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D92" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E92" s="1" t="n">
-        <v>260.567792892456</v>
+        <v>233.326685905457</v>
       </c>
       <c r="F92" s="1" t="n">
-        <v>1583212.08841242</v>
+        <v>1581888.45281441</v>
       </c>
       <c r="G92" s="1" t="n">
-        <v>1581651.03315101</v>
+        <v>1586551.60108368</v>
       </c>
       <c r="H92" s="1" t="n">
-        <v>1580075.7284527</v>
+        <v>1585126.06845826</v>
       </c>
       <c r="I92" s="1" t="n">
         <v>1</v>
@@ -8940,22 +9069,22 @@
         <v>100</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E93" s="1" t="n">
-        <v>476.301223993301</v>
+        <v>839.679046869278</v>
       </c>
       <c r="F93" s="1" t="n">
-        <v>1583007.80802143</v>
+        <v>1581618.05489181</v>
       </c>
       <c r="G93" s="1" t="n">
-        <v>1581493.86779352</v>
+        <v>1588291.38465069</v>
       </c>
       <c r="H93" s="1" t="n">
-        <v>1580082.80309195</v>
+        <v>1586720.94049823</v>
       </c>
       <c r="I93" s="1" t="n">
         <v>1</v>
@@ -8969,22 +9098,22 @@
         <v>100</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E94" s="1" t="n">
-        <v>378.185946941376</v>
+        <v>170.363681077957</v>
       </c>
       <c r="F94" s="1" t="n">
-        <v>1583332.84963226</v>
+        <v>1582180.20945787</v>
       </c>
       <c r="G94" s="1" t="n">
-        <v>1582473.92566556</v>
+        <v>1587425.28398866</v>
       </c>
       <c r="H94" s="1" t="n">
-        <v>1580980.40039283</v>
+        <v>1585994.94626095</v>
       </c>
       <c r="I94" s="1" t="n">
         <v>1</v>
@@ -8998,22 +9127,22 @@
         <v>100</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D95" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E95" s="1" t="n">
-        <v>427.14231801033</v>
+        <v>264.514720916748</v>
       </c>
       <c r="F95" s="1" t="n">
-        <v>1582700.65648699</v>
+        <v>1582493.62515207</v>
       </c>
       <c r="G95" s="1" t="n">
-        <v>1581851.04600744</v>
+        <v>1584456.62999684</v>
       </c>
       <c r="H95" s="1" t="n">
-        <v>1580366.49432983</v>
+        <v>1582928.64615089</v>
       </c>
       <c r="I95" s="1" t="n">
         <v>1</v>
@@ -9027,22 +9156,22 @@
         <v>100</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D96" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E96" s="1" t="n">
-        <v>554.915956020355</v>
+        <v>302.507258176804</v>
       </c>
       <c r="F96" s="1" t="n">
-        <v>1582584.64293827</v>
+        <v>1582456.29502865</v>
       </c>
       <c r="G96" s="1" t="n">
-        <v>1583536.5837852</v>
+        <v>1586909.4388711</v>
       </c>
       <c r="H96" s="1" t="n">
-        <v>1582373.20214976</v>
+        <v>1585693.84211281</v>
       </c>
       <c r="I96" s="1" t="n">
         <v>1</v>
@@ -9056,22 +9185,22 @@
         <v>100</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D97" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E97" s="1" t="n">
-        <v>458.962476015091</v>
+        <v>279.463153839111</v>
       </c>
       <c r="F97" s="1" t="n">
-        <v>1583269.88516456</v>
+        <v>1581772.18127963</v>
       </c>
       <c r="G97" s="1" t="n">
-        <v>1581381.397495</v>
+        <v>1585355.46394319</v>
       </c>
       <c r="H97" s="1" t="n">
-        <v>1580168.99324348</v>
+        <v>1583797.0562968</v>
       </c>
       <c r="I97" s="1" t="n">
         <v>1</v>
@@ -9085,22 +9214,22 @@
         <v>100</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D98" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E98" s="1" t="n">
-        <v>442.323450088501</v>
+        <v>349.465081930161</v>
       </c>
       <c r="F98" s="1" t="n">
-        <v>1583509.36663435</v>
+        <v>1583141.63997389</v>
       </c>
       <c r="G98" s="1" t="n">
-        <v>1580787.83277998</v>
+        <v>1588100.94143749</v>
       </c>
       <c r="H98" s="1" t="n">
-        <v>1579541.10980011</v>
+        <v>1586641.07448958</v>
       </c>
       <c r="I98" s="1" t="n">
         <v>1</v>
@@ -9114,82 +9243,24 @@
         <v>100</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D99" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="E99" s="1" t="n">
-        <v>482.63042807579</v>
+        <v>155.34124994278</v>
       </c>
       <c r="F99" s="1" t="n">
-        <v>1583503.88405662</v>
+        <v>1582204.0855098</v>
       </c>
       <c r="G99" s="1" t="n">
-        <v>1580458.29692662</v>
+        <v>1587127.15978644</v>
       </c>
       <c r="H99" s="1" t="n">
-        <v>1579274.47450001</v>
+        <v>1586023.65604527</v>
       </c>
       <c r="I99" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B100" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="C100" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="D100" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="E100" s="1" t="n">
-        <v>295.852255105972</v>
-      </c>
-      <c r="F100" s="1" t="n">
-        <v>1582981.21007493</v>
-      </c>
-      <c r="G100" s="1" t="n">
-        <v>1580389.85175888</v>
-      </c>
-      <c r="H100" s="1" t="n">
-        <v>1579304.64667928</v>
-      </c>
-      <c r="I100" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B101" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="C101" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="D101" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="E101" s="1" t="n">
-        <v>306.806886911392</v>
-      </c>
-      <c r="F101" s="1" t="n">
-        <v>1582850.9103335</v>
-      </c>
-      <c r="G101" s="1" t="n">
-        <v>1581131.86627872</v>
-      </c>
-      <c r="H101" s="1" t="n">
-        <v>1579940.68600422</v>
-      </c>
-      <c r="I101" s="1" t="n">
         <v>1</v>
       </c>
     </row>
